--- a/src/attributions/attributions_saliency_traj_127.xlsx
+++ b/src/attributions/attributions_saliency_traj_127.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002027062000706792</v>
+        <v>0.2281805723905563</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0009792266646400094</v>
+        <v>1.903566241264343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004439402837306261</v>
+        <v>0.192891001701355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002754152519628406</v>
+        <v>0.1732074618339539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007899113930761814</v>
+        <v>0.1543260812759399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01434648316353559</v>
+        <v>1.575911521911621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004305256064981222</v>
+        <v>0.1373493373394012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002561138477176428</v>
+        <v>0.7364307045936584</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01099951937794685</v>
+        <v>0.2121966481208801</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007745198672637343</v>
+        <v>0.5498256683349609</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007688114419579506</v>
+        <v>1.760661482810974</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005130987614393234</v>
+        <v>0.2195669412612915</v>
       </c>
       <c r="M3" t="n">
-        <v>5.710078403353691e-05</v>
+        <v>0.1400458514690399</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006560786161571741</v>
+        <v>0.5157753229141235</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0036928690969944</v>
+        <v>0.8945491313934326</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001379633788019419</v>
+        <v>0.08319921791553497</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00265053752809763</v>
+        <v>0.3747981786727905</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002619704231619835</v>
+        <v>0.03632771223783493</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0007384183700196445</v>
+        <v>0.286093145608902</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0005867164582014084</v>
+        <v>0.04947400093078613</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0009977500885725021</v>
+        <v>0.2122914046049118</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001990089192986488</v>
+        <v>0.1946179270744324</v>
       </c>
       <c r="W3" t="n">
-        <v>8.501222328050062e-05</v>
+        <v>0.5291500091552734</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001796339638531208</v>
+        <v>0.07804866135120392</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005914616398513317</v>
+        <v>0.01742229983210564</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003558912547305226</v>
+        <v>0.02876785397529602</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0007916135946288705</v>
+        <v>0.1220944225788116</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0005701165064238012</v>
+        <v>0.15456622838974</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001563667203299701</v>
+        <v>0.02994547411799431</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001226241583935916</v>
+        <v>0.05771945416927338</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.007402782328426838</v>
+        <v>0.05270197242498398</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.003025409299880266</v>
+        <v>0.138932853937149</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.000633234332781285</v>
+        <v>0.1135761439800262</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.004278378095477819</v>
+        <v>0.09166404604911804</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.002610522089526057</v>
+        <v>0.06434321403503418</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.002297902945429087</v>
+        <v>0.07585447281599045</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0003060918534174562</v>
+        <v>0.3673413097858429</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.002271946286782622</v>
+        <v>0.06325297057628632</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0006071206880733371</v>
+        <v>0.08744345605373383</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.002594317309558392</v>
+        <v>0.211085170507431</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.003406803123652935</v>
+        <v>0.1267871558666229</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.000616636942140758</v>
+        <v>0.5449624061584473</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001470499788410962</v>
+        <v>0.02497466467320919</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001825103419832885</v>
+        <v>0.1658990085124969</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001685783499851823</v>
+        <v>0.05234215408563614</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.001985526410862803</v>
+        <v>0.2343023717403412</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001262783771380782</v>
+        <v>0.9154345393180847</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.004056077916175127</v>
+        <v>0.3727997541427612</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.004032690078020096</v>
+        <v>0.03835147619247437</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.008635874837636948</v>
+        <v>0.2390615493059158</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.00124848133418709</v>
+        <v>0.5055622458457947</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.006503856740891933</v>
+        <v>0.2753594815731049</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.002981733065098524</v>
+        <v>0.2698413729667664</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.003360130824148655</v>
+        <v>0.286269873380661</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.001147974515333772</v>
+        <v>0.3680351078510284</v>
       </c>
       <c r="BD3" t="n">
-        <v>3.547874803189188e-05</v>
+        <v>0.1718713790178299</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0001416869345121086</v>
+        <v>0.6904993057250977</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.001287632156163454</v>
+        <v>0.09491191804409027</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.002072594361379743</v>
+        <v>0.469415009021759</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0006747505394741893</v>
+        <v>0.4633021354675293</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0009424198069609702</v>
+        <v>0.2646065354347229</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.002008858369663358</v>
+        <v>0.4127646684646606</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.004625622648745775</v>
+        <v>0.2070077210664749</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0006434089737012982</v>
+        <v>0.2129940688610077</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.00155648635700345</v>
+        <v>0.1782512962818146</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0002702799974940717</v>
+        <v>0.07985156029462814</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.000452033244073391</v>
+        <v>0.1716185361146927</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.001226621679961681</v>
+        <v>0.04647869989275932</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.001659470610320568</v>
+        <v>0.05750061571598053</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0003803357831202447</v>
+        <v>0.1687432676553726</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0006406658212654293</v>
+        <v>0.1284877061843872</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0001517145137768239</v>
+        <v>0.1293830871582031</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0007471972494386137</v>
+        <v>0.1079887896776199</v>
       </c>
       <c r="BV3" t="n">
-        <v>6.652783486060798e-05</v>
+        <v>0.5818776488304138</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.001693538972176611</v>
+        <v>0.04081545770168304</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.00662266556173563</v>
+        <v>0.1698878705501556</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.008582161739468575</v>
+        <v>0.1140867471694946</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.003927502781152725</v>
+        <v>0.03871618211269379</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.001375305000692606</v>
+        <v>0.09352485090494156</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.002697361633181572</v>
+        <v>0.08518358319997787</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.003170731943100691</v>
+        <v>0.09473834931850433</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0007438256870955229</v>
+        <v>0.2296673953533173</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.001239032135345042</v>
+        <v>0.3629262447357178</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0007667526951991022</v>
+        <v>0.02257594093680382</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0015832195058465</v>
+        <v>0.09614729881286621</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.002194715663790703</v>
+        <v>0.1516747772693634</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0007263635634444654</v>
+        <v>0.3004634976387024</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.001585423946380615</v>
+        <v>0.0301063247025013</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0007862786296755075</v>
+        <v>0.06243042647838593</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0002077626122627407</v>
+        <v>0.003684584051370621</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0004003657668363303</v>
+        <v>0.4728636145591736</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0003943593765143305</v>
+        <v>0.3200615346431732</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0003112143604084849</v>
+        <v>0.3526913225650787</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.005835499614477158</v>
+        <v>0.1962594836950302</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0001170016766991466</v>
+        <v>0.1648406088352203</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.002168883802369237</v>
+        <v>0.6001763939857483</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0002504631411284208</v>
+        <v>0.1483259499073029</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.002792568411678076</v>
+        <v>0.1058649867773056</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.001910837832838297</v>
+        <v>0.2608199119567871</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0009609021944925189</v>
+        <v>0.2627191543579102</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.001229182002134621</v>
+        <v>0.362848311662674</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0005432540783658624</v>
+        <v>0.0512436181306839</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0008925973670557141</v>
+        <v>0.08537635207176208</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.001811802387237549</v>
+        <v>0.2103861570358276</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.001268837950192392</v>
+        <v>0.2308364659547806</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0005339538911357522</v>
+        <v>0.0189114473760128</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0005748041439801455</v>
+        <v>0.1533087342977524</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.001671386300586164</v>
+        <v>0.04962220042943954</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.00100436550565064</v>
+        <v>0.2154739499092102</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.002013497520238161</v>
+        <v>0.9756681323051453</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.003472584765404463</v>
+        <v>0.08787136524915695</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.002185153076425195</v>
+        <v>0.1294090896844864</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.006130291614681482</v>
+        <v>1.441456913948059</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0009840949205681682</v>
+        <v>0.1904006004333496</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.00191731471568346</v>
+        <v>0.1807869076728821</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.001934934756718576</v>
+        <v>0.4882193207740784</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.002326518995687366</v>
+        <v>0.04447459429502487</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0008942259009927511</v>
+        <v>0.1389538049697876</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0001814636343624443</v>
+        <v>0.1914449334144592</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0009619913762435317</v>
+        <v>0.05427855998277664</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.002368792425841093</v>
+        <v>0.1351292282342911</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0002450215688440949</v>
+        <v>0.2695628702640533</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0005451302859000862</v>
+        <v>0.1593413501977921</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0006540208123624325</v>
+        <v>0.312691867351532</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.002210604725405574</v>
+        <v>0.09541209042072296</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0003448494535405189</v>
+        <v>0.02793424017727375</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0007217429229058325</v>
+        <v>0.2710084915161133</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.001001730561256409</v>
+        <v>0.1867446154356003</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0006932615651749074</v>
+        <v>0.4590682685375214</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0009730897145345807</v>
+        <v>0.1494603306055069</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.004499497823417187</v>
+        <v>0.157354936003685</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.001818180200643837</v>
+        <v>0.1425206065177917</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.00377989374101162</v>
+        <v>0.1029659658670425</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.902298390632495e-05</v>
+        <v>0.2099073976278305</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001815729774534702</v>
+        <v>0.1517584174871445</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0005241495673544705</v>
+        <v>0.4090233743190765</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.001638430170714855</v>
+        <v>0.4466299712657928</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.001295100897550583</v>
+        <v>0.2087397128343582</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.001582049997523427</v>
+        <v>0.1059267967939377</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.001973805483430624</v>
+        <v>0.2392392009496689</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.000510305748321116</v>
+        <v>0.4487168192863464</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0001560766831971705</v>
+        <v>0.05259168148040771</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0001554477785248309</v>
+        <v>0.1698781996965408</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0009400789858773351</v>
+        <v>0.06016817688941956</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0003735822683665901</v>
+        <v>0.2053266912698746</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.001024959026835859</v>
+        <v>0.536840558052063</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.001022778335027397</v>
+        <v>0.1912144124507904</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.001401890884153545</v>
+        <v>0.3625287115573883</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003973229788243771</v>
+        <v>0.09880931675434113</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.002892495132982731</v>
+        <v>0.02085352689027786</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.004571498837321997</v>
+        <v>0.06336862593889236</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0002521962160244584</v>
+        <v>0.006462931632995605</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001653862069360912</v>
+        <v>0.1308233737945557</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0007288146298378706</v>
+        <v>0.298697292804718</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.001173281110823154</v>
+        <v>0.3965919613838196</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.000581204192712903</v>
+        <v>0.07768264412879944</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.001391816884279251</v>
+        <v>0.1120639517903328</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.001676032086834311</v>
+        <v>0.1112441122531891</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.001738073187880218</v>
+        <v>0.2311831116676331</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0003051129751838744</v>
+        <v>0.02923468314111233</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0007517776684835553</v>
+        <v>0.1390579342842102</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0008243533666245639</v>
+        <v>0.01815369352698326</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0008119569974951446</v>
+        <v>0.2120906710624695</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0009833748918026686</v>
+        <v>0.06639739125967026</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0005812181625515223</v>
+        <v>0.4833585023880005</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.001470347866415977</v>
+        <v>0.1242836117744446</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.005889865569770336</v>
+        <v>0.1784292608499527</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.002943431492894888</v>
+        <v>0.183876171708107</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.003501258092001081</v>
+        <v>0.2204391956329346</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0008857327629812062</v>
+        <v>0.2727620005607605</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0006159106269478798</v>
+        <v>0.1508009880781174</v>
       </c>
       <c r="FP3" t="n">
-        <v>8.767552208155394e-05</v>
+        <v>0.2836271524429321</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.002889840863645077</v>
+        <v>0.2753211557865143</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0001740983570925891</v>
+        <v>0.6069637537002563</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01034786365926266</v>
+        <v>0.2494206577539444</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.001361822476610541</v>
+        <v>0.7157049179077148</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.004898797255009413</v>
+        <v>0.1185944378376007</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.003153772093355656</v>
+        <v>0.4964191913604736</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0004969106521457434</v>
+        <v>0.02478277683258057</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.004391815979033709</v>
+        <v>0.1290116310119629</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.000174219545442611</v>
+        <v>0.3517719209194183</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.001008114079013467</v>
+        <v>0.03471817448735237</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0009129459504038095</v>
+        <v>0.07291635870933533</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0007680525886826217</v>
+        <v>0.04229593649506569</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001348725520074368</v>
+        <v>0.606695830821991</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.003022144315764308</v>
+        <v>0.2911046743392944</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.003183691063895822</v>
+        <v>0.1655148714780807</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0005272135604172945</v>
+        <v>0.01053471490740776</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.004805360920727253</v>
+        <v>0.1219512075185776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.08060939610004425</v>
+        <v>0.001285805366933346</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02671624347567558</v>
+        <v>0.1933411359786987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007609117776155472</v>
+        <v>0.01858674734830856</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03925846517086029</v>
+        <v>0.02024329267442226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09407886117696762</v>
+        <v>0.01736352033913136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0188322588801384</v>
+        <v>0.1050152182579041</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09358079731464386</v>
+        <v>0.006151802837848663</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07850911468267441</v>
+        <v>0.0693708136677742</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05576395988464355</v>
+        <v>0.04491038620471954</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07276086509227753</v>
+        <v>0.02953563258051872</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05435381084680557</v>
+        <v>0.1553382724523544</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02740427479147911</v>
+        <v>0.003288116538897157</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03391619771718979</v>
+        <v>0.07209666818380356</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07266687601804733</v>
+        <v>0.003216548822820187</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06294897943735123</v>
+        <v>0.09119256585836411</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09360569715499878</v>
+        <v>0.01707746088504791</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07621373236179352</v>
+        <v>0.03031191974878311</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1241917833685875</v>
+        <v>0.0663878321647644</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0209382064640522</v>
+        <v>0.0002629586961120367</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01621837727725506</v>
+        <v>0.01339320838451385</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02488577365875244</v>
+        <v>0.00584298511967063</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01394386030733585</v>
+        <v>0.001183819025754929</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01315067429095507</v>
+        <v>0.02376552857458591</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006744122132658958</v>
+        <v>6.811646744608879e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0247538834810257</v>
+        <v>0.003808372188359499</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004606934962794185</v>
+        <v>0.02589488215744495</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01383428275585175</v>
+        <v>0.002158377319574356</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001976892119273543</v>
+        <v>0.01104931812733412</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01061390899121761</v>
+        <v>0.02413652651011944</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002865666523575783</v>
+        <v>0.004476331640034914</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0279677752405405</v>
+        <v>0.005419126246124506</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01144699193537235</v>
+        <v>0.02999370358884335</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0008171811932697892</v>
+        <v>0.03173740208148956</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0003388300538063049</v>
+        <v>0.003389675170183182</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02200806699693203</v>
+        <v>0.03502561151981354</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02002843283116817</v>
+        <v>0.02680695056915283</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.582060940563679e-05</v>
+        <v>0.006249148398637772</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01662736758589745</v>
+        <v>0.009233678691089153</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.02439858205616474</v>
+        <v>0.001948462566360831</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01017064042389393</v>
+        <v>0.02557414211332798</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.02949223667383194</v>
+        <v>0.0119406022131443</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0156974159181118</v>
+        <v>0.03532391786575317</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.00148318475112319</v>
+        <v>0.02700909413397312</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02762218751013279</v>
+        <v>0.01397517416626215</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.00141557352617383</v>
+        <v>0.02284175343811512</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.04791669920086861</v>
+        <v>0.02471575699746609</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.007622145116329193</v>
+        <v>0.1059016659855843</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.05643953382968903</v>
+        <v>0.008757907897233963</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02615109086036682</v>
+        <v>0.05616446956992149</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.04098665714263916</v>
+        <v>0.0450446642935276</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01724917069077492</v>
+        <v>0.06481506675481796</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.003323305863887072</v>
+        <v>0.03224944695830345</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.06167630106210709</v>
+        <v>0.04909176379442215</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.008524706587195396</v>
+        <v>0.02366337366402149</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.01881448552012444</v>
+        <v>0.0001679891720414162</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01709138229489326</v>
+        <v>0.05099109560251236</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0157584436237812</v>
+        <v>0.03796237334609032</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.006906313821673393</v>
+        <v>0.02436706051230431</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01581107638776302</v>
+        <v>0.04417165368795395</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.055120799690485</v>
+        <v>0.05290310829877853</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0295637734234333</v>
+        <v>0.03190958499908447</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.04205197840929031</v>
+        <v>0.01675882935523987</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.01061492413282394</v>
+        <v>0.04203644394874573</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.03718199953436852</v>
+        <v>0.008175617083907127</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.01213262788951397</v>
+        <v>0.02676533535122871</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.01440270803868771</v>
+        <v>0.014508874155581</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03065367788076401</v>
+        <v>0.002592766657471657</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01654482074081898</v>
+        <v>0.01205857750028372</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.006937148980796337</v>
+        <v>0.005181241780519485</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.01558482553809881</v>
+        <v>0.0216765720397234</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.01691178604960442</v>
+        <v>0.03070604242384434</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.01067510899156332</v>
+        <v>0.01492025144398212</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.04682168364524841</v>
+        <v>0.005982058122754097</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.01862285286188126</v>
+        <v>0.05421336740255356</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.01263551600277424</v>
+        <v>0.02562107145786285</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.002997613744810224</v>
+        <v>0.03000326454639435</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.02795312367379665</v>
+        <v>0.01464228145778179</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.007639414630830288</v>
+        <v>0.02090359851717949</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.02094034105539322</v>
+        <v>0.009184342809021473</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.03599625825881958</v>
+        <v>0.02662133798003197</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.02009892836213112</v>
+        <v>0.008354527875781059</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.008683053776621819</v>
+        <v>0.00158564408775419</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.006084326654672623</v>
+        <v>0.0368083082139492</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.004165218211710453</v>
+        <v>0.008901618421077728</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.03148205205798149</v>
+        <v>0.004253643099218607</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02183732017874718</v>
+        <v>0.01473313104361296</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0006331459153443575</v>
+        <v>0.005113591440021992</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.01854153536260128</v>
+        <v>0.01289563253521919</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.007165065966546535</v>
+        <v>0.0001887744292616844</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01150873024016619</v>
+        <v>0.007285506930202246</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.008393265306949615</v>
+        <v>0.02801518887281418</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.04809090495109558</v>
+        <v>0.02183796092867851</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.03371024876832962</v>
+        <v>0.000506955198943615</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.009138934314250946</v>
+        <v>0.07696776837110519</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.03432153537869453</v>
+        <v>0.003709404729306698</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.01520674675703049</v>
+        <v>0.01551679987460375</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0283171758055687</v>
+        <v>0.03439835831522942</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.05501878261566162</v>
+        <v>0.01976515911519527</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.03174347057938576</v>
+        <v>0.01073584333062172</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.01142618618905544</v>
+        <v>0.00227186200208962</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.006012062076479197</v>
+        <v>0.03021443448960781</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.003111900994554162</v>
+        <v>0.01433246675878763</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.02817427739500999</v>
+        <v>0.006710660178214312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.009727843105792999</v>
+        <v>0.02010669372975826</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.009018639102578163</v>
+        <v>0.00594901479780674</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.01187659148126841</v>
+        <v>0.01028226222842932</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0006639417260885239</v>
+        <v>0.008160820230841637</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0003755881916731596</v>
+        <v>0.01278581283986568</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.01017193496227264</v>
+        <v>0.00287052383646369</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.05919317156076431</v>
+        <v>0.03707844018936157</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0202037300914526</v>
+        <v>0.004572446458041668</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.06932251900434494</v>
+        <v>0.02449434064328671</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01465127244591713</v>
+        <v>0.03947596997022629</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.006491184234619141</v>
+        <v>0.07792548090219498</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.01004847791045904</v>
+        <v>0.03896672278642654</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.008291467092931271</v>
+        <v>0.01902885362505913</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02640823647379875</v>
+        <v>0.04573852568864822</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01411300525069237</v>
+        <v>0.001716473256237805</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.008939485065639019</v>
+        <v>0.02193335257470608</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02692827209830284</v>
+        <v>0.01232796534895897</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02970047853887081</v>
+        <v>0.01336309313774109</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.01020189840346575</v>
+        <v>0.0001268740743398666</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.02731180936098099</v>
+        <v>0.02263557352125645</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.01970567181706429</v>
+        <v>0.03313284367322922</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.006346464157104492</v>
+        <v>0.01278025005012751</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03129975497722626</v>
+        <v>0.003874193178489804</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.02379343658685684</v>
+        <v>0.003944097086787224</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.02841821685433388</v>
+        <v>0.01653840951621532</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.03109825029969215</v>
+        <v>0.01244417950510979</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.01189436670392752</v>
+        <v>0.03654568269848824</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.010293273255229</v>
+        <v>0.005615177564322948</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.02469480410218239</v>
+        <v>0.007376863155514002</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.03205325081944466</v>
+        <v>0.003000342752784491</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.006783696822822094</v>
+        <v>0.01841890253126621</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.05024503916501999</v>
+        <v>0.03940056636929512</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.002592845819890499</v>
+        <v>0.003085985314100981</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.01042211055755615</v>
+        <v>0.02818982303142548</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.006752985063940287</v>
+        <v>0.003746179398149252</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.04188432916998863</v>
+        <v>0.0195523276925087</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.005233627744019032</v>
+        <v>0.01143449544906616</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.004157310351729393</v>
+        <v>0.0348355807363987</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.006971640978008509</v>
+        <v>0.02999402582645416</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.03064895607531071</v>
+        <v>0.006102345418184996</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.002877007937058806</v>
+        <v>0.003910715226083994</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.02441202849149704</v>
+        <v>0.005212598480284214</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.01931529119610786</v>
+        <v>0.01966446451842785</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.04253293946385384</v>
+        <v>0.01387121342122555</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.004522592760622501</v>
+        <v>0.01585554331541061</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.01335026696324348</v>
+        <v>0.009723211638629436</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.01922429725527763</v>
+        <v>0.0008639395236968994</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.002030987292528152</v>
+        <v>0.04067007079720497</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0224523339420557</v>
+        <v>0.01028389949351549</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.01386516448110342</v>
+        <v>0.00326214637607336</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.01960636861622334</v>
+        <v>0.003556367009878159</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.00489334249868989</v>
+        <v>0.03200646117329597</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.00454751355573535</v>
+        <v>0.006347133778035641</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.03019318357110023</v>
+        <v>0.004040193744003773</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01529768481850624</v>
+        <v>0.02269059047102928</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.003794895019382238</v>
+        <v>0.00802516657859087</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.01048837509006262</v>
+        <v>0.02168634906411171</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.006444819737225771</v>
+        <v>0.005019897129386663</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.005601474549621344</v>
+        <v>0.01941293105483055</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.01326376106590033</v>
+        <v>0.007748027797788382</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0271427258849144</v>
+        <v>0.001693285536020994</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.02055633440613747</v>
+        <v>0.008176573552191257</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0133882611989975</v>
+        <v>0.03212658315896988</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.03221733868122101</v>
+        <v>0.02829266712069511</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.02105558291077614</v>
+        <v>0.01334808301180601</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.01807312667369843</v>
+        <v>0.004959762096405029</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.07544628530740738</v>
+        <v>0.01897978968918324</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.05556103214621544</v>
+        <v>0.01188160572201014</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.02305683866143227</v>
+        <v>0.02168457396328449</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.008343636058270931</v>
+        <v>0.02256599441170692</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.001747427973896265</v>
+        <v>0.008071425370872021</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.01887595281004906</v>
+        <v>0.0008374499157071114</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.05408567935228348</v>
+        <v>0.0009262491948902607</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.05778377875685692</v>
+        <v>0.04882736131548882</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01024891715496778</v>
+        <v>0.01786950044333935</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.06493975967168808</v>
+        <v>0.01899264752864838</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.02440390177071095</v>
+        <v>0.008742416277527809</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.001669452525675297</v>
+        <v>0.03087994828820229</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.009000829420983791</v>
+        <v>0.009556470438838005</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01387463975697756</v>
+        <v>0.008657507598400116</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.06776641309261322</v>
+        <v>0.0041235676035285</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.007400915492326021</v>
+        <v>0.005143224261701107</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.02685894444584846</v>
+        <v>0.03165294975042343</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.01019148901104927</v>
+        <v>0.02424420043826103</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.01209002546966076</v>
+        <v>0.01382377650588751</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.01104186568409204</v>
+        <v>0.007610555738210678</v>
       </c>
     </row>
     <row r="5">
@@ -3280,1140 +3280,1140 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.906961865141056e-07</v>
+        <v>0.0005928369937464595</v>
       </c>
       <c r="B6" t="n">
-        <v>8.383502972719725e-06</v>
+        <v>0.002426889492198825</v>
       </c>
       <c r="C6" t="n">
-        <v>8.824637006910052e-06</v>
+        <v>0.0004222870920784771</v>
       </c>
       <c r="D6" t="n">
-        <v>7.735631697869394e-06</v>
+        <v>0.000706691644154489</v>
       </c>
       <c r="E6" t="n">
-        <v>1.324017944170919e-06</v>
+        <v>0.001911196857690811</v>
       </c>
       <c r="F6" t="n">
-        <v>1.174204680864932e-05</v>
+        <v>0.0005675768479704857</v>
       </c>
       <c r="G6" t="n">
-        <v>4.121636720810784e-06</v>
+        <v>0.0002005794522119686</v>
       </c>
       <c r="H6" t="n">
-        <v>1.965306864804006e-06</v>
+        <v>3.863043457386084e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.908828016894404e-05</v>
+        <v>0.0001641650596866384</v>
       </c>
       <c r="J6" t="n">
-        <v>8.891131983546074e-06</v>
+        <v>0.000126018567243591</v>
       </c>
       <c r="K6" t="n">
-        <v>6.624514753639232e-06</v>
+        <v>0.001436837832443416</v>
       </c>
       <c r="L6" t="n">
-        <v>1.639985930523835e-05</v>
+        <v>0.0002662838087417185</v>
       </c>
       <c r="M6" t="n">
-        <v>6.524875061586499e-06</v>
+        <v>0.0008169747306965292</v>
       </c>
       <c r="N6" t="n">
-        <v>2.18555851461133e-06</v>
+        <v>0.001993207959458232</v>
       </c>
       <c r="O6" t="n">
-        <v>5.789432634628611e-06</v>
+        <v>0.0007512776646763086</v>
       </c>
       <c r="P6" t="n">
-        <v>4.986035037291003e-06</v>
+        <v>0.0001725453766994178</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.367805791436695e-06</v>
+        <v>0.0003128133248537779</v>
       </c>
       <c r="R6" t="n">
-        <v>1.520554724265821e-05</v>
+        <v>5.469885945785791e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>3.91247294828645e-06</v>
+        <v>4.531181184574962e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>2.006347870064928e-07</v>
+        <v>0.0006311146426014602</v>
       </c>
       <c r="U6" t="n">
-        <v>3.09101687889779e-06</v>
+        <v>1.555506514705485e-07</v>
       </c>
       <c r="V6" t="n">
-        <v>4.699046712630661e-06</v>
+        <v>0.0002270076947752386</v>
       </c>
       <c r="W6" t="n">
-        <v>3.928505975636654e-06</v>
+        <v>8.921424159780145e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.621208127744467e-07</v>
+        <v>0.0004048015689477324</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.036784725438338e-06</v>
+        <v>0.0002012817858485505</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.057392844624701e-07</v>
+        <v>9.54220668063499e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.788689471344696e-06</v>
+        <v>9.39203891903162e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.836984655616106e-07</v>
+        <v>2.824708644766361e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.686942576081492e-06</v>
+        <v>0.000528322474565357</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.268011940032011e-06</v>
+        <v>0.0003425660252105445</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.35352410224732e-06</v>
+        <v>0.0003717084182426333</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.203100055136019e-06</v>
+        <v>8.2053491496481e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.983136826311238e-06</v>
+        <v>4.321358210290782e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.544193300011102e-06</v>
+        <v>0.0005324189551174641</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.909666131425183e-06</v>
+        <v>0.0001437977334717289</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.31754609355994e-06</v>
+        <v>0.0001024220400722697</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.102927512874885e-06</v>
+        <v>0.0003569434629753232</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.982473918360483e-07</v>
+        <v>0.0005952176288701594</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.403095438945456e-06</v>
+        <v>0.0001751185045577586</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.250655714102322e-06</v>
+        <v>8.255569991888478e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.164370750459057e-07</v>
+        <v>0.0002353657182538882</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.213443465530872e-05</v>
+        <v>0.0003457814455032349</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.789641702198423e-07</v>
+        <v>0.0001362803159281611</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.348286438471405e-06</v>
+        <v>0.0001019876726786606</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.798986431822414e-06</v>
+        <v>8.851222810335457e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>7.195093985501444e-06</v>
+        <v>0.0003413396771065891</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.287073246203363e-06</v>
+        <v>0.002249531447887421</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.473081192671089e-05</v>
+        <v>8.625615737400949e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.206406745448476e-06</v>
+        <v>5.971541395410895e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.834802894038148e-06</v>
+        <v>0.0001724819303490222</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.304123523179442e-06</v>
+        <v>0.0004557110369205475</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6.359192411764525e-06</v>
+        <v>0.0001580195676069707</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.660648639604915e-06</v>
+        <v>0.0001527471613371745</v>
       </c>
       <c r="BB6" t="n">
-        <v>9.984032658394426e-06</v>
+        <v>0.0001495105243520811</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.097852070117369e-06</v>
+        <v>0.0001328131183981895</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.321914275351446e-06</v>
+        <v>0.0002415414055576548</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.408326054137433e-06</v>
+        <v>4.551317397272214e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.208455043728463e-06</v>
+        <v>0.0003054765402339399</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.698577751900302e-06</v>
+        <v>0.001281976932659745</v>
       </c>
       <c r="BH6" t="n">
-        <v>4.869473286817083e-06</v>
+        <v>0.0001662624854361638</v>
       </c>
       <c r="BI6" t="n">
-        <v>3.328402954139165e-06</v>
+        <v>0.0002902179548982531</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.20479317047284e-05</v>
+        <v>0.0003277729556430131</v>
       </c>
       <c r="BK6" t="n">
-        <v>4.068873295182129e-06</v>
+        <v>0.0001823071215767413</v>
       </c>
       <c r="BL6" t="n">
-        <v>4.234231710142922e-06</v>
+        <v>0.0003754000645130873</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.556800831778673e-06</v>
+        <v>0.00058470678050071</v>
       </c>
       <c r="BN6" t="n">
-        <v>9.537762707623187e-06</v>
+        <v>5.799433893116657e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.051529008895159e-06</v>
+        <v>0.0004960802034474909</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.037849526459468e-06</v>
+        <v>0.000627711764536798</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.065721102757379e-06</v>
+        <v>0.0001830641849664971</v>
       </c>
       <c r="BR6" t="n">
-        <v>4.178475137450732e-06</v>
+        <v>0.0002092650975100696</v>
       </c>
       <c r="BS6" t="n">
-        <v>7.612468380102655e-07</v>
+        <v>4.510275539360009e-05</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.624958713364322e-06</v>
+        <v>3.031392407137901e-05</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.352150547972997e-06</v>
+        <v>0.0001700671418802813</v>
       </c>
       <c r="BV6" t="n">
-        <v>4.704892944573658e-06</v>
+        <v>0.001091136829927564</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.352805270471436e-06</v>
+        <v>0.0003835895622614771</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.350095772068016e-06</v>
+        <v>2.67311988864094e-05</v>
       </c>
       <c r="BY6" t="n">
-        <v>4.129184162593447e-06</v>
+        <v>0.0005157852428965271</v>
       </c>
       <c r="BZ6" t="n">
-        <v>7.740840715086961e-07</v>
+        <v>0.0006685405387543142</v>
       </c>
       <c r="CA6" t="n">
-        <v>3.638801445049467e-06</v>
+        <v>0.0001081461232388392</v>
       </c>
       <c r="CB6" t="n">
-        <v>4.632393029169179e-06</v>
+        <v>0.0001315137778874487</v>
       </c>
       <c r="CC6" t="n">
-        <v>6.948020200070459e-06</v>
+        <v>5.777343176305294e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.433510871924227e-06</v>
+        <v>7.377384463325143e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>4.350850758783054e-06</v>
+        <v>0.0004576830542646348</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.022218611979042e-06</v>
+        <v>3.571091656340286e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.591479644957872e-06</v>
+        <v>0.0002371254522586241</v>
       </c>
       <c r="CH6" t="n">
-        <v>2.003572262765374e-06</v>
+        <v>0.0002118188131134957</v>
       </c>
       <c r="CI6" t="n">
-        <v>2.606737325550057e-06</v>
+        <v>0.0002067947934847325</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.198270751956443e-06</v>
+        <v>0.0001155209756689146</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.539825689178542e-06</v>
+        <v>1.605634133738931e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.15574380288308e-06</v>
+        <v>6.85317900206428e-06</v>
       </c>
       <c r="CM6" t="n">
-        <v>4.171927230345318e-06</v>
+        <v>0.0004627335583791137</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.358689587505069e-06</v>
+        <v>0.0002982202277053148</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.663608372837189e-06</v>
+        <v>0.0002999030402861536</v>
       </c>
       <c r="CP6" t="n">
-        <v>4.560865818348248e-06</v>
+        <v>1.020453055389225e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5.306595085130539e-06</v>
+        <v>0.0003690349985845387</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.188016984902788e-07</v>
+        <v>0.0002239793102489784</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.72159877820377e-06</v>
+        <v>1.503155181126203e-05</v>
       </c>
       <c r="CT6" t="n">
-        <v>4.655481006921036e-06</v>
+        <v>0.000191947357961908</v>
       </c>
       <c r="CU6" t="n">
-        <v>4.648872163670603e-06</v>
+        <v>2.114972085109912e-05</v>
       </c>
       <c r="CV6" t="n">
-        <v>3.254710691180662e-06</v>
+        <v>7.831552647985518e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>3.620505822254927e-06</v>
+        <v>0.0002710366970859468</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.102662849916669e-06</v>
+        <v>1.402823818352772e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>9.764310107129859e-07</v>
+        <v>0.0003357913519721478</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.723723355302354e-06</v>
+        <v>0.0001853438443504274</v>
       </c>
       <c r="DA6" t="n">
-        <v>3.795599468503497e-06</v>
+        <v>0.0002977624535560608</v>
       </c>
       <c r="DB6" t="n">
-        <v>6.168908157633268e-07</v>
+        <v>0.0001052957159117796</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.375826059302199e-06</v>
+        <v>2.780305294436403e-06</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.958467121061403e-06</v>
+        <v>6.144073267932981e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>2.28542739932891e-06</v>
+        <v>0.0001125173876062036</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.220833291881718e-05</v>
+        <v>0.0007207500166259706</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.79192593350308e-05</v>
+        <v>6.885649781906977e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.337386260682251e-06</v>
+        <v>0.0003897499991580844</v>
       </c>
       <c r="DI6" t="n">
-        <v>9.709960977488663e-06</v>
+        <v>0.0006943329353816807</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.038195659930352e-05</v>
+        <v>0.0001741745218168944</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.243417955265613e-05</v>
+        <v>0.0006663427921012044</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.955752506750287e-06</v>
+        <v>5.82558277528733e-05</v>
       </c>
       <c r="DM6" t="n">
-        <v>2.883301249312353e-06</v>
+        <v>0.0003367211320437491</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.934807525889482e-06</v>
+        <v>0.0004982901155017316</v>
       </c>
       <c r="DO6" t="n">
-        <v>5.433951628219802e-06</v>
+        <v>0.0002873917983379215</v>
       </c>
       <c r="DP6" t="n">
-        <v>6.573832706635585e-06</v>
+        <v>3.235672920709476e-07</v>
       </c>
       <c r="DQ6" t="n">
-        <v>8.407996574533172e-07</v>
+        <v>0.0004097339406143874</v>
       </c>
       <c r="DR6" t="n">
-        <v>5.418727141659474e-06</v>
+        <v>4.247968172421679e-05</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.263455260414048e-06</v>
+        <v>6.377600220730528e-05</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.195124579884578e-06</v>
+        <v>3.228071000194177e-05</v>
       </c>
       <c r="DU6" t="n">
-        <v>3.682798023874057e-06</v>
+        <v>0.0002742154756560922</v>
       </c>
       <c r="DV6" t="n">
-        <v>9.478432048126706e-07</v>
+        <v>5.004416379961185e-06</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.123668082276708e-06</v>
+        <v>2.670452522579581e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.688933593868569e-06</v>
+        <v>0.0002479137328919023</v>
       </c>
       <c r="DY6" t="n">
-        <v>5.742512030337821e-07</v>
+        <v>0.0003915549023076892</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.597182972545852e-07</v>
+        <v>0.000108575593912974</v>
       </c>
       <c r="EA6" t="n">
-        <v>2.576474798843265e-06</v>
+        <v>0.0005692500271834433</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.751806843865779e-06</v>
+        <v>8.259275637101382e-05</v>
       </c>
       <c r="EC6" t="n">
-        <v>2.176300085920957e-06</v>
+        <v>6.885328730277251e-06</v>
       </c>
       <c r="ED6" t="n">
-        <v>8.831930244923569e-07</v>
+        <v>0.0001451725693186745</v>
       </c>
       <c r="EE6" t="n">
-        <v>8.191803999579861e-07</v>
+        <v>9.447801858186722e-05</v>
       </c>
       <c r="EF6" t="n">
-        <v>4.449946573004127e-06</v>
+        <v>0.0002865852147806436</v>
       </c>
       <c r="EG6" t="n">
-        <v>8.46692273626104e-06</v>
+        <v>1.479475395171903e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>2.640014827193227e-06</v>
+        <v>9.903343016048893e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.78137861439609e-06</v>
+        <v>0.0002014910714933649</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.527078779872681e-06</v>
+        <v>0.000200173759367317</v>
       </c>
       <c r="EK6" t="n">
-        <v>6.735453098372091e-06</v>
+        <v>5.997424887027591e-05</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.170763536923914e-06</v>
+        <v>0.0001947888522408903</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.910038463392993e-06</v>
+        <v>9.726863027026411e-06</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.804562882374739e-06</v>
+        <v>4.049968265462667e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.288355972268619e-06</v>
+        <v>0.0004036282189190388</v>
       </c>
       <c r="EP6" t="n">
-        <v>5.603455065283924e-06</v>
+        <v>4.351154530013446e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.858752168322098e-07</v>
+        <v>3.54099647665862e-05</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.211498101838515e-07</v>
+        <v>0.0001391411497024819</v>
       </c>
       <c r="ES6" t="n">
-        <v>4.65620132672484e-06</v>
+        <v>5.9308124036761e-05</v>
       </c>
       <c r="ET6" t="n">
-        <v>3.585955710150301e-06</v>
+        <v>0.0006215922767296433</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.817600150388898e-07</v>
+        <v>3.354440195835195e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.822393187467242e-07</v>
+        <v>0.0004046606773044914</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.055814095707319e-06</v>
+        <v>0.0001287963677896187</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.884536454279441e-06</v>
+        <v>6.592381396330893e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>3.524454541548039e-06</v>
+        <v>0.000241389891016297</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.121469495046767e-06</v>
+        <v>0.0001266420003958046</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.299281732121017e-06</v>
+        <v>0.000261914829025045</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.685781057858549e-06</v>
+        <v>0.0002124338643625379</v>
       </c>
       <c r="FC6" t="n">
-        <v>3.811987198787392e-06</v>
+        <v>0.0002987226180266589</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.485567366898977e-07</v>
+        <v>9.495938138570637e-05</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.337502908427268e-06</v>
+        <v>1.224349216499832e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>3.22405048791552e-06</v>
+        <v>1.738113496685401e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>4.100761998415692e-06</v>
+        <v>0.0003129024116788059</v>
       </c>
       <c r="FH6" t="n">
-        <v>6.856465688542812e-07</v>
+        <v>0.0004739611758850515</v>
       </c>
       <c r="FI6" t="n">
-        <v>3.497509396765963e-06</v>
+        <v>0.0001939657231559977</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.835181698581437e-06</v>
+        <v>0.0001529532019048929</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.695323817330063e-06</v>
+        <v>0.0001008928229566664</v>
       </c>
       <c r="FL6" t="n">
-        <v>6.686119604637497e-07</v>
+        <v>6.392660725396127e-05</v>
       </c>
       <c r="FM6" t="n">
-        <v>4.036420477859792e-07</v>
+        <v>5.883031917619519e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.416117925145954e-06</v>
+        <v>6.299900269368663e-05</v>
       </c>
       <c r="FO6" t="n">
-        <v>9.921747050611884e-07</v>
+        <v>0.0002869789605028927</v>
       </c>
       <c r="FP6" t="n">
-        <v>2.014662641158793e-06</v>
+        <v>0.0003723649133462459</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.403428200319468e-06</v>
+        <v>0.0003478361177258193</v>
       </c>
       <c r="FR6" t="n">
-        <v>8.095591965684434e-07</v>
+        <v>0.0006440583383664489</v>
       </c>
       <c r="FS6" t="n">
-        <v>8.544982847524807e-06</v>
+        <v>0.0004403206403367221</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.613274088820617e-07</v>
+        <v>0.001073521212674677</v>
       </c>
       <c r="FU6" t="n">
-        <v>2.307609179297287e-07</v>
+        <v>0.0002537959371693432</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.150639147657785e-06</v>
+        <v>2.870189200621098e-05</v>
       </c>
       <c r="FW6" t="n">
-        <v>1.169912820842001e-06</v>
+        <v>0.0002602071326691657</v>
       </c>
       <c r="FX6" t="n">
-        <v>4.29073179475381e-06</v>
+        <v>8.010807505343109e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.990909595406265e-06</v>
+        <v>6.900029256939888e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>9.974382010113914e-06</v>
+        <v>0.0004929681890644133</v>
       </c>
       <c r="GA6" t="n">
-        <v>3.872615707223304e-06</v>
+        <v>0.0002792950836010277</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.755682200790034e-06</v>
+        <v>0.0003089991223532706</v>
       </c>
       <c r="GC6" t="n">
-        <v>4.872028966929065e-07</v>
+        <v>0.0001516502525191754</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.33082846787147e-06</v>
+        <v>0.0003285098064225167</v>
       </c>
       <c r="GE6" t="n">
-        <v>8.171947456503403e-07</v>
+        <v>0.0001798223966034129</v>
       </c>
       <c r="GF6" t="n">
-        <v>4.11636119679315e-06</v>
+        <v>0.0003822773287538439</v>
       </c>
       <c r="GG6" t="n">
-        <v>3.158650940804364e-07</v>
+        <v>9.592678543413058e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.376134918653406e-05</v>
+        <v>0.0002748302358668298</v>
       </c>
       <c r="B7" t="n">
-        <v>8.783405974099878e-06</v>
+        <v>0.002547397511079907</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001063070449163206</v>
+        <v>0.0001703799061942846</v>
       </c>
       <c r="D7" t="n">
-        <v>4.730659566121176e-05</v>
+        <v>0.001403443980962038</v>
       </c>
       <c r="E7" t="n">
-        <v>4.965461266692728e-05</v>
+        <v>0.0004054593737237155</v>
       </c>
       <c r="F7" t="n">
-        <v>7.119384008547058e-06</v>
+        <v>0.0004623816639650613</v>
       </c>
       <c r="G7" t="n">
-        <v>1.647179487918038e-05</v>
+        <v>0.0001313626707997173</v>
       </c>
       <c r="H7" t="n">
-        <v>2.754975866992027e-05</v>
+        <v>0.0001463842927478254</v>
       </c>
       <c r="I7" t="n">
-        <v>8.451630856143311e-05</v>
+        <v>0.0002467159065417945</v>
       </c>
       <c r="J7" t="n">
-        <v>7.128518518584315e-06</v>
+        <v>0.0004109618603251874</v>
       </c>
       <c r="K7" t="n">
-        <v>1.77596648427425e-05</v>
+        <v>0.001612748834304512</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001148001756519079</v>
+        <v>0.0001579678355483338</v>
       </c>
       <c r="M7" t="n">
-        <v>2.56622806773521e-05</v>
+        <v>0.001530939480289817</v>
       </c>
       <c r="N7" t="n">
-        <v>2.256115658383351e-05</v>
+        <v>0.0009870126377791166</v>
       </c>
       <c r="O7" t="n">
-        <v>6.081242190703051e-06</v>
+        <v>0.0008574908133596182</v>
       </c>
       <c r="P7" t="n">
-        <v>2.199710252170917e-05</v>
+        <v>0.0001553197944303975</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.001752651878633e-05</v>
+        <v>0.0001747326750773937</v>
       </c>
       <c r="R7" t="n">
-        <v>9.752337064128369e-05</v>
+        <v>5.738663458032534e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>4.055856152263004e-06</v>
+        <v>7.354423723882064e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>3.771449701162055e-05</v>
+        <v>0.0004177488735876977</v>
       </c>
       <c r="U7" t="n">
-        <v>3.917431968147866e-06</v>
+        <v>0.00012911346857436</v>
       </c>
       <c r="V7" t="n">
-        <v>2.632535324664786e-05</v>
+        <v>0.0003021442971657962</v>
       </c>
       <c r="W7" t="n">
-        <v>2.080124431813601e-05</v>
+        <v>0.0001031862193485722</v>
       </c>
       <c r="X7" t="n">
-        <v>6.494151421065908e-06</v>
+        <v>0.000340048864018172</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.382825303153368e-07</v>
+        <v>0.0002448626910336316</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.772778705344535e-05</v>
+        <v>4.172818080405705e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.803962368285283e-05</v>
+        <v>3.198256308678538e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.810446625924669e-06</v>
+        <v>0.0003140224143862724</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.087054442905355e-06</v>
+        <v>0.0004043196386191994</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.832164217485115e-06</v>
+        <v>6.047466013114899e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.770637209119741e-05</v>
+        <v>5.629303996101953e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.300658348365687e-06</v>
+        <v>0.0002838277141563594</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.483499883965123e-05</v>
+        <v>0.0001563641562825069</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.150197466718964e-06</v>
+        <v>6.812818901380524e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.556948493293021e-05</v>
+        <v>7.452961290255189e-05</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.885258047375828e-05</v>
+        <v>5.230855094850995e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>6.069498795113759e-06</v>
+        <v>0.0001333984691882506</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.260035034851171e-05</v>
+        <v>0.0002179658331442624</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.723493010620587e-06</v>
+        <v>9.249550203094259e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.146969589171931e-05</v>
+        <v>0.0001481987128499895</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.059055102814455e-05</v>
+        <v>0.0003214525931980461</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.820693771354854e-05</v>
+        <v>0.000324996595736593</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.538586613809457e-06</v>
+        <v>9.583916835254058e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>8.781286851444747e-06</v>
+        <v>0.0001920928771141917</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.506473937406554e-07</v>
+        <v>9.861108264885843e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.252155718451831e-05</v>
+        <v>0.0003032128734048456</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.147323721146677e-05</v>
+        <v>0.002080778358504176</v>
       </c>
       <c r="AV7" t="n">
-        <v>7.723032467765734e-05</v>
+        <v>7.44086064514704e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.424650665489025e-05</v>
+        <v>0.0002035284123849124</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.269505658769049e-06</v>
+        <v>0.0004159290692768991</v>
       </c>
       <c r="AY7" t="n">
-        <v>5.464434798341244e-05</v>
+        <v>0.0003127572417724878</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.05737526610028e-05</v>
+        <v>5.132034129928797e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.570576205267571e-05</v>
+        <v>4.471073771128431e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.161524364259094e-05</v>
+        <v>7.8221557487268e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>5.753972800448537e-07</v>
+        <v>6.833046063547954e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.114946371671977e-05</v>
+        <v>0.0004209967155475169</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.643940024427138e-05</v>
+        <v>0.0003943870542570949</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.932037427352043e-06</v>
+        <v>0.0002906484878621995</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.09301272459561e-05</v>
+        <v>0.0008184651960618794</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.442059121676721e-05</v>
+        <v>0.0006267077988013625</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.740683001116849e-05</v>
+        <v>0.0003035395930055529</v>
       </c>
       <c r="BJ7" t="n">
-        <v>9.744881936057936e-06</v>
+        <v>0.0001676971296546981</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.214295702491654e-06</v>
+        <v>3.701401874423027e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.99013504445611e-06</v>
+        <v>0.0004923455417156219</v>
       </c>
       <c r="BM7" t="n">
-        <v>3.597338945837691e-06</v>
+        <v>0.0005900162504985929</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.642459367052652e-05</v>
+        <v>0.000154618319356814</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.849950644507771e-06</v>
+        <v>0.0001677844120422378</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.210029222420417e-05</v>
+        <v>0.0004450304550118744</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.134058834395546e-06</v>
+        <v>0.0002770553110167384</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.326273377344478e-05</v>
+        <v>6.272280006669462e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.296602153568529e-05</v>
+        <v>0.0001001998607534915</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.029712959483732e-05</v>
+        <v>0.0001672616053838283</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.408038042427506e-05</v>
+        <v>0.0002476332592777908</v>
       </c>
       <c r="BV7" t="n">
-        <v>6.779155228286982e-06</v>
+        <v>0.0009770285105332732</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.810629666782916e-05</v>
+        <v>8.820476068649441e-05</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.695935861789621e-05</v>
+        <v>0.0001465776877012104</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.674783015914727e-05</v>
+        <v>0.0001006620732368901</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4.526058546616696e-06</v>
+        <v>0.0006779050454497337</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.373408844709047e-06</v>
+        <v>4.845811417908408e-05</v>
       </c>
       <c r="CB7" t="n">
-        <v>7.28911800251808e-06</v>
+        <v>8.206309576053172e-05</v>
       </c>
       <c r="CC7" t="n">
-        <v>3.767236194107682e-05</v>
+        <v>4.653922223951668e-05</v>
       </c>
       <c r="CD7" t="n">
-        <v>7.716511390754022e-06</v>
+        <v>0.0002090247726300731</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.46125230457983e-05</v>
+        <v>0.0004236219101585448</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.981163222808391e-05</v>
+        <v>0.0001028910919558257</v>
       </c>
       <c r="CG7" t="n">
-        <v>5.326963673724094e-06</v>
+        <v>0.0001213825889863074</v>
       </c>
       <c r="CH7" t="n">
-        <v>7.973823812790215e-06</v>
+        <v>9.977674926631153e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>8.63344939716626e-06</v>
+        <v>0.000164779179613106</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.688410520728212e-06</v>
+        <v>0.0001018253897200339</v>
       </c>
       <c r="CK7" t="n">
-        <v>5.352238531486364e-06</v>
+        <v>1.401911504217423e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.214485382661223e-05</v>
+        <v>3.84966770070605e-05</v>
       </c>
       <c r="CM7" t="n">
-        <v>7.73326974012889e-06</v>
+        <v>0.0003267147403676063</v>
       </c>
       <c r="CN7" t="n">
-        <v>3.158876279485412e-05</v>
+        <v>0.0003472024400252849</v>
       </c>
       <c r="CO7" t="n">
-        <v>6.395971922756871e-06</v>
+        <v>0.0002116924442816526</v>
       </c>
       <c r="CP7" t="n">
-        <v>8.190390872186981e-06</v>
+        <v>0.0005713840946555138</v>
       </c>
       <c r="CQ7" t="n">
-        <v>7.588794687762856e-06</v>
+        <v>0.0003877149720210582</v>
       </c>
       <c r="CR7" t="n">
-        <v>9.944751582224853e-06</v>
+        <v>0.0003562625788617879</v>
       </c>
       <c r="CS7" t="n">
-        <v>4.477217316889437e-07</v>
+        <v>0.0001181555126095191</v>
       </c>
       <c r="CT7" t="n">
-        <v>3.827897671726532e-06</v>
+        <v>0.0004298301937524229</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.129912875010632e-05</v>
+        <v>2.742112519626971e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>8.467061888950411e-06</v>
+        <v>0.0001989298471016809</v>
       </c>
       <c r="CW7" t="n">
-        <v>9.842354302236345e-06</v>
+        <v>0.0003103481139987707</v>
       </c>
       <c r="CX7" t="n">
-        <v>1.439923562429613e-05</v>
+        <v>0.000133356312289834</v>
       </c>
       <c r="CY7" t="n">
-        <v>6.052340722817462e-06</v>
+        <v>0.0002390425797784701</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.714260361040942e-05</v>
+        <v>9.275949560105801e-05</v>
       </c>
       <c r="DA7" t="n">
-        <v>7.454999376932392e-06</v>
+        <v>0.0001657514658290893</v>
       </c>
       <c r="DB7" t="n">
-        <v>4.205188815831207e-06</v>
+        <v>8.799722127150744e-05</v>
       </c>
       <c r="DC7" t="n">
-        <v>6.213232154550496e-06</v>
+        <v>1.128836447605863e-05</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.424578294972889e-05</v>
+        <v>1.293580135097727e-05</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.917001645779237e-05</v>
+        <v>0.0001048077247105539</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.05293251585681e-05</v>
+        <v>0.0003222417435608804</v>
       </c>
       <c r="DG7" t="n">
-        <v>3.792021743720397e-05</v>
+        <v>0.0001082506205420941</v>
       </c>
       <c r="DH7" t="n">
-        <v>3.180059866281226e-05</v>
+        <v>0.0002993476809933782</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.978932596102823e-05</v>
+        <v>6.592812860617414e-05</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.450266038067639e-05</v>
+        <v>0.0001307359052589163</v>
       </c>
       <c r="DK7" t="n">
-        <v>3.128591197310016e-05</v>
+        <v>0.0001295421534450725</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.212579445564188e-05</v>
+        <v>0.0001193568605231121</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.10342877835501e-05</v>
+        <v>0.0001504308165749535</v>
       </c>
       <c r="DN7" t="n">
-        <v>8.519394214090426e-06</v>
+        <v>0.000413961912272498</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.112309382733656e-05</v>
+        <v>0.0001392155099892989</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.205734588438645e-05</v>
+        <v>0.0002148750791093335</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.02278972917702e-05</v>
+        <v>0.0001163788328994997</v>
       </c>
       <c r="DR7" t="n">
-        <v>3.974246737925569e-06</v>
+        <v>0.0001362231123493984</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.344340034847846e-05</v>
+        <v>0.0002766206162050366</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.198253130496596e-06</v>
+        <v>5.073300781077705e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>8.133683877531439e-06</v>
+        <v>3.269760782131925e-05</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.973605139937717e-05</v>
+        <v>3.635764005593956e-05</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.799165824602824e-06</v>
+        <v>0.0001342328905593604</v>
       </c>
       <c r="DX7" t="n">
-        <v>4.191161224298412e-06</v>
+        <v>2.006975591939408e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.059134319802979e-05</v>
+        <v>0.0002661793259903789</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.270155280508334e-06</v>
+        <v>0.0002023586857831106</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.253174650628353e-05</v>
+        <v>0.0003639575734268874</v>
       </c>
       <c r="EB7" t="n">
-        <v>3.96626546717016e-06</v>
+        <v>0.0002406978019280359</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.858171218482312e-06</v>
+        <v>3.774567085201852e-05</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.008642513828818e-05</v>
+        <v>7.373571133939549e-05</v>
       </c>
       <c r="EE7" t="n">
-        <v>3.487164349280647e-06</v>
+        <v>3.742543776752427e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>9.29029738472309e-06</v>
+        <v>0.0001445650414098054</v>
       </c>
       <c r="EG7" t="n">
-        <v>1.576028444105759e-05</v>
+        <v>0.0001787693181540817</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.331566818407737e-05</v>
+        <v>3.418056076043285e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>3.952452516386984e-06</v>
+        <v>0.0001908242265926674</v>
       </c>
       <c r="EJ7" t="n">
-        <v>7.573198672616854e-07</v>
+        <v>8.088034519460052e-05</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.269260155822849e-05</v>
+        <v>0.0001165518478956074</v>
       </c>
       <c r="EL7" t="n">
-        <v>4.363408152130432e-06</v>
+        <v>0.0001081838709069416</v>
       </c>
       <c r="EM7" t="n">
-        <v>1.281704317079857e-05</v>
+        <v>9.483816393185407e-05</v>
       </c>
       <c r="EN7" t="n">
-        <v>7.950770850584377e-06</v>
+        <v>2.300156847923063e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>1.513986171630677e-05</v>
+        <v>0.0002000357198994607</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.74816203879891e-06</v>
+        <v>0.0003076659049838781</v>
       </c>
       <c r="EQ7" t="n">
-        <v>5.522285391634796e-06</v>
+        <v>7.69775579101406e-05</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.924070966197178e-05</v>
+        <v>0.0002100988349411637</v>
       </c>
       <c r="ES7" t="n">
-        <v>4.229504611430457e-06</v>
+        <v>0.0001469350245315582</v>
       </c>
       <c r="ET7" t="n">
-        <v>3.205982466170099e-06</v>
+        <v>0.0006649682181887329</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.913874802994542e-05</v>
+        <v>0.0001769728260114789</v>
       </c>
       <c r="EV7" t="n">
-        <v>2.446520966259413e-06</v>
+        <v>0.0001440543419448659</v>
       </c>
       <c r="EW7" t="n">
-        <v>2.636853059811983e-05</v>
+        <v>1.585323116159998e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>4.394208644953324e-06</v>
+        <v>0.0001379839377477765</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.151476317318156e-05</v>
+        <v>0.0003331944171804935</v>
       </c>
       <c r="EZ7" t="n">
-        <v>1.722886736388318e-05</v>
+        <v>3.579217445803806e-05</v>
       </c>
       <c r="FA7" t="n">
-        <v>3.826769898296334e-06</v>
+        <v>0.0001774880947778001</v>
       </c>
       <c r="FB7" t="n">
-        <v>6.00383646087721e-06</v>
+        <v>5.815028998767957e-06</v>
       </c>
       <c r="FC7" t="n">
-        <v>4.505523065745365e-06</v>
+        <v>0.0002210429811384529</v>
       </c>
       <c r="FD7" t="n">
-        <v>3.911517524102237e-06</v>
+        <v>0.0001037084439303726</v>
       </c>
       <c r="FE7" t="n">
-        <v>9.181057976093143e-06</v>
+        <v>1.438763320038561e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.992338729905896e-05</v>
+        <v>3.949560777982697e-05</v>
       </c>
       <c r="FG7" t="n">
-        <v>4.125311079405947e-07</v>
+        <v>8.7342421466019e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>4.687874024966732e-06</v>
+        <v>0.0001138985317084007</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.08597423604806e-05</v>
+        <v>1.992441502807196e-05</v>
       </c>
       <c r="FJ7" t="n">
-        <v>3.29896283801645e-06</v>
+        <v>0.0002446250291541219</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.074227657227311e-05</v>
+        <v>0.0001446434325771406</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.391318710375344e-05</v>
+        <v>0.0001689123891992494</v>
       </c>
       <c r="FM7" t="n">
-        <v>7.396843102469575e-06</v>
+        <v>4.797590372618288e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>6.439668595703552e-06</v>
+        <v>7.642380660399795e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.634717773413286e-05</v>
+        <v>0.0001779026933945715</v>
       </c>
       <c r="FP7" t="n">
-        <v>7.42400879971683e-06</v>
+        <v>2.406279236311093e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>2.326540925423615e-05</v>
+        <v>0.0001677592081250623</v>
       </c>
       <c r="FR7" t="n">
-        <v>8.912776138458867e-06</v>
+        <v>3.1459941965295e-05</v>
       </c>
       <c r="FS7" t="n">
-        <v>8.535635060979985e-06</v>
+        <v>0.0004439508193172514</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.538197284389753e-05</v>
+        <v>0.0003449786454439163</v>
       </c>
       <c r="FU7" t="n">
-        <v>7.704852578171995e-06</v>
+        <v>2.189039150835015e-05</v>
       </c>
       <c r="FV7" t="n">
-        <v>1.112755671783816e-05</v>
+        <v>8.636793063487858e-05</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.456599759170786e-07</v>
+        <v>7.758807623758912e-05</v>
       </c>
       <c r="FX7" t="n">
-        <v>9.473889804212376e-06</v>
+        <v>0.0001890100538730621</v>
       </c>
       <c r="FY7" t="n">
-        <v>1.025370147544891e-05</v>
+        <v>0.000284538371488452</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.702405097603332e-05</v>
+        <v>0.0002635422279126942</v>
       </c>
       <c r="GA7" t="n">
-        <v>9.734535524330568e-07</v>
+        <v>1.717678787827026e-05</v>
       </c>
       <c r="GB7" t="n">
-        <v>2.036313526332378e-05</v>
+        <v>0.0001228266628459096</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.024197263177484e-05</v>
+        <v>0.0001622803829377517</v>
       </c>
       <c r="GD7" t="n">
-        <v>2.571799632278271e-05</v>
+        <v>0.0002987290499731898</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.447474642191082e-05</v>
+        <v>0.0004316896083764732</v>
       </c>
       <c r="GF7" t="n">
-        <v>2.94133151328424e-05</v>
+        <v>1.145674832514487e-05</v>
       </c>
       <c r="GG7" t="n">
-        <v>6.604683449040749e-07</v>
+        <v>7.54209904698655e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4987,2278 +4987,2278 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.567981465835146e-09</v>
+        <v>2.238724206016229e-10</v>
       </c>
       <c r="B9" t="n">
-        <v>4.976665302081074e-09</v>
+        <v>4.064785452673192e-10</v>
       </c>
       <c r="C9" t="n">
-        <v>2.2802345256423e-07</v>
+        <v>1.019161491311316e-10</v>
       </c>
       <c r="D9" t="n">
-        <v>4.477805148894731e-08</v>
+        <v>1.441834207582815e-09</v>
       </c>
       <c r="E9" t="n">
-        <v>1.351319411924123e-07</v>
+        <v>2.359160089504542e-11</v>
       </c>
       <c r="F9" t="n">
-        <v>6.498769522522707e-08</v>
+        <v>1.497089258117867e-11</v>
       </c>
       <c r="G9" t="n">
-        <v>1.154473672215772e-08</v>
+        <v>3.496294573301917e-11</v>
       </c>
       <c r="H9" t="n">
-        <v>1.122193005187455e-09</v>
+        <v>1.016590422953101e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>1.063920933574991e-07</v>
+        <v>2.203057181127122e-11</v>
       </c>
       <c r="J9" t="n">
-        <v>3.415590654753942e-08</v>
+        <v>3.693582939501283e-10</v>
       </c>
       <c r="K9" t="n">
-        <v>3.323201269722631e-09</v>
+        <v>2.646478314272116e-10</v>
       </c>
       <c r="L9" t="n">
-        <v>2.333623569938936e-07</v>
+        <v>1.118036496716712e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>5.513272327561936e-08</v>
+        <v>6.487541615030068e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>8.286917108080161e-08</v>
+        <v>8.176620491795461e-11</v>
       </c>
       <c r="O9" t="n">
-        <v>2.311084124073659e-08</v>
+        <v>4.328088998306612e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>3.976420259732549e-08</v>
+        <v>2.015022315671189e-10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.944458816183214e-08</v>
+        <v>4.871831826847028e-10</v>
       </c>
       <c r="R9" t="n">
-        <v>1.374300637735359e-07</v>
+        <v>4.992349242338712e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.052425346870223e-08</v>
+        <v>5.425655411062102e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>4.324340352468425e-08</v>
+        <v>3.861958322581849e-11</v>
       </c>
       <c r="U9" t="n">
-        <v>3.83985536700493e-08</v>
+        <v>1.529500553987262e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>3.849489971230469e-08</v>
+        <v>1.731405470384306e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.037797569049872e-08</v>
+        <v>3.054681507741464e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>4.864911140600725e-09</v>
+        <v>2.421347670977791e-11</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.982373104032376e-08</v>
+        <v>5.216440057687066e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.515983865691851e-08</v>
+        <v>7.008049696111129e-11</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.63705484115917e-08</v>
+        <v>2.251605152325808e-10</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.152164846336291e-08</v>
+        <v>1.129977639235946e-10</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.871494662163968e-08</v>
+        <v>1.229192581053695e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.379874158326857e-08</v>
+        <v>4.756325541754869e-12</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.534248057718742e-09</v>
+        <v>2.528587617067757e-10</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.905769929701819e-08</v>
+        <v>2.449620506439487e-10</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.91351867076628e-08</v>
+        <v>3.113678481714288e-10</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.328084082937949e-09</v>
+        <v>1.112255218482794e-10</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.742583025243221e-08</v>
+        <v>1.64218499909552e-10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.958659971521229e-08</v>
+        <v>7.923279393695637e-11</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.10161032810197e-09</v>
+        <v>5.750042109120557e-11</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.058587966757841e-09</v>
+        <v>1.63062771618705e-10</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.277548188407309e-08</v>
+        <v>1.202702798464017e-10</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.88416429125482e-08</v>
+        <v>9.675141937615095e-11</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.697808293954495e-08</v>
+        <v>2.305072799302366e-10</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.722070036043078e-08</v>
+        <v>1.913727926128317e-10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.245048147386797e-09</v>
+        <v>1.972215168954961e-10</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.949932304512458e-08</v>
+        <v>1.439199037722716e-10</v>
       </c>
       <c r="AS9" t="n">
-        <v>9.444280024695217e-09</v>
+        <v>1.510377517499606e-10</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.57806442252695e-08</v>
+        <v>1.624360368435163e-13</v>
       </c>
       <c r="AU9" t="n">
-        <v>5.71988856279404e-09</v>
+        <v>9.391239869094292e-11</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.182527995524651e-07</v>
+        <v>7.854413647256919e-11</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.561138951444718e-08</v>
+        <v>7.198976970101967e-10</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.147065642470579e-08</v>
+        <v>1.193430423929165e-11</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.839778166067845e-08</v>
+        <v>7.129482421097677e-11</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.495861295415125e-08</v>
+        <v>1.736987498279774e-10</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.970434730466877e-09</v>
+        <v>1.489469103610475e-10</v>
       </c>
       <c r="BB9" t="n">
-        <v>4.918847551493855e-09</v>
+        <v>3.67697261527411e-10</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.134908789168776e-08</v>
+        <v>1.808582728024533e-10</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.763737043196215e-09</v>
+        <v>6.493892923398192e-11</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.154781845817524e-08</v>
+        <v>5.368290534324416e-11</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.605523263810028e-08</v>
+        <v>8.957391772757006e-11</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.514501186913549e-08</v>
+        <v>5.785472101393907e-11</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.818168974907167e-08</v>
+        <v>7.848174887747916e-11</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.291301643391307e-08</v>
+        <v>1.322219139732184e-10</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.854673925549832e-08</v>
+        <v>6.117622519674626e-10</v>
       </c>
       <c r="BK9" t="n">
-        <v>5.341779996115292e-08</v>
+        <v>1.371595545474058e-11</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.480778071856093e-08</v>
+        <v>4.502867523292764e-11</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.288167154697931e-09</v>
+        <v>1.494273177415906e-10</v>
       </c>
       <c r="BN9" t="n">
-        <v>7.271471247349837e-08</v>
+        <v>1.160540205602523e-10</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.378641290017413e-08</v>
+        <v>1.269455651708995e-10</v>
       </c>
       <c r="BP9" t="n">
-        <v>4.380893869893043e-08</v>
+        <v>1.98562971620575e-10</v>
       </c>
       <c r="BQ9" t="n">
-        <v>6.801700536129829e-09</v>
+        <v>2.114009245435255e-10</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.625722927973584e-08</v>
+        <v>2.013994873650837e-11</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.315540831825501e-08</v>
+        <v>2.540762392144735e-11</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.3344367832957e-09</v>
+        <v>6.686087794527396e-11</v>
       </c>
       <c r="BU9" t="n">
-        <v>5.106546296929082e-10</v>
+        <v>3.134329601417463e-12</v>
       </c>
       <c r="BV9" t="n">
-        <v>7.491909315149314e-09</v>
+        <v>7.164693144323664e-11</v>
       </c>
       <c r="BW9" t="n">
-        <v>6.256175311136758e-08</v>
+        <v>8.757133213022072e-11</v>
       </c>
       <c r="BX9" t="n">
-        <v>8.183237198977622e-09</v>
+        <v>2.791622211173461e-10</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.702171559259114e-08</v>
+        <v>1.712552044619287e-10</v>
       </c>
       <c r="BZ9" t="n">
-        <v>4.432090250361398e-08</v>
+        <v>1.861306664352469e-10</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.073789768213373e-08</v>
+        <v>2.309528956967455e-10</v>
       </c>
       <c r="CB9" t="n">
-        <v>2.405841037500522e-08</v>
+        <v>1.371311536546571e-10</v>
       </c>
       <c r="CC9" t="n">
-        <v>8.805885798324198e-09</v>
+        <v>2.469724424969399e-10</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.582546798635121e-08</v>
+        <v>2.625549777590663e-11</v>
       </c>
       <c r="CE9" t="n">
-        <v>2.643017715797669e-08</v>
+        <v>7.269754243033333e-11</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.75079736159023e-08</v>
+        <v>1.57546115042706e-10</v>
       </c>
       <c r="CG9" t="n">
-        <v>5.852841322706581e-09</v>
+        <v>1.452200443230467e-10</v>
       </c>
       <c r="CH9" t="n">
-        <v>3.481725130427549e-08</v>
+        <v>7.866551854363024e-11</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.503279716847828e-08</v>
+        <v>1.686658451793832e-11</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.443764130470981e-08</v>
+        <v>8.800968287481226e-11</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.903102172690524e-09</v>
+        <v>6.457055029551739e-11</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.189290710357227e-08</v>
+        <v>1.853548980967901e-10</v>
       </c>
       <c r="CM9" t="n">
-        <v>3.57920733051742e-08</v>
+        <v>1.331854071473515e-11</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.046305062705869e-08</v>
+        <v>3.159635331151378e-10</v>
       </c>
       <c r="CO9" t="n">
-        <v>6.312920852735715e-09</v>
+        <v>5.934079616576327e-11</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.78003123352255e-08</v>
+        <v>3.435401685347728e-10</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4.291943511702812e-08</v>
+        <v>1.73475289688696e-10</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.457436032443638e-08</v>
+        <v>2.851165414874401e-10</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.741249988640448e-08</v>
+        <v>1.81344703142905e-10</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.688658895522167e-08</v>
+        <v>5.142962167248299e-10</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.688813876578934e-08</v>
+        <v>1.122539474568418e-11</v>
       </c>
       <c r="CV9" t="n">
-        <v>2.96623330342527e-08</v>
+        <v>3.385300373359712e-11</v>
       </c>
       <c r="CW9" t="n">
-        <v>2.646734920119798e-08</v>
+        <v>8.184809774380852e-11</v>
       </c>
       <c r="CX9" t="n">
-        <v>4.043985057933241e-08</v>
+        <v>9.000437894979285e-11</v>
       </c>
       <c r="CY9" t="n">
-        <v>4.316348167776596e-09</v>
+        <v>2.556513056806153e-10</v>
       </c>
       <c r="CZ9" t="n">
-        <v>4.106372841761186e-08</v>
+        <v>8.569791404289262e-11</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.783769836867123e-08</v>
+        <v>4.596926311828398e-11</v>
       </c>
       <c r="DB9" t="n">
-        <v>7.055846129588872e-09</v>
+        <v>8.135903062367333e-11</v>
       </c>
       <c r="DC9" t="n">
-        <v>7.826826409207399e-10</v>
+        <v>7.610761326715121e-11</v>
       </c>
       <c r="DD9" t="n">
-        <v>2.465277582075487e-08</v>
+        <v>1.384275333249363e-10</v>
       </c>
       <c r="DE9" t="n">
-        <v>9.200715744839272e-09</v>
+        <v>7.995514667014092e-11</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.165969578664772e-07</v>
+        <v>2.897481421459958e-10</v>
       </c>
       <c r="DG9" t="n">
-        <v>7.0839064392203e-08</v>
+        <v>5.576450412547729e-10</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.438344104405132e-08</v>
+        <v>1.209518929456976e-09</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.204968302914722e-08</v>
+        <v>4.526544972183189e-10</v>
       </c>
       <c r="DJ9" t="n">
-        <v>4.51901449594061e-09</v>
+        <v>4.620236832009184e-11</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.923274339787895e-08</v>
+        <v>9.596962807778553e-11</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.81797607470935e-08</v>
+        <v>7.391549039503786e-10</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.410938471086865e-08</v>
+        <v>6.795578683105319e-11</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.297037321990047e-08</v>
+        <v>5.808499514703414e-11</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.039514785361462e-08</v>
+        <v>4.504610573441425e-11</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.790180670369068e-09</v>
+        <v>2.338699511827969e-10</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.825002904354278e-08</v>
+        <v>1.280833425432171e-11</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.644502489739352e-08</v>
+        <v>1.948538969065439e-10</v>
       </c>
       <c r="DS9" t="n">
-        <v>9.233731113056365e-09</v>
+        <v>1.71001934834436e-10</v>
       </c>
       <c r="DT9" t="n">
-        <v>5.829183358230239e-09</v>
+        <v>3.349696908738764e-11</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.08904554660694e-08</v>
+        <v>5.801633479185497e-11</v>
       </c>
       <c r="DV9" t="n">
-        <v>4.757816363110123e-09</v>
+        <v>3.930044900624097e-10</v>
       </c>
       <c r="DW9" t="n">
-        <v>8.61374527261205e-09</v>
+        <v>1.089625820127615e-10</v>
       </c>
       <c r="DX9" t="n">
-        <v>3.644454338314063e-08</v>
+        <v>1.155497503235736e-10</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.190931264716255e-08</v>
+        <v>2.468289739265828e-10</v>
       </c>
       <c r="DZ9" t="n">
-        <v>7.006627722461189e-09</v>
+        <v>6.432517712928743e-11</v>
       </c>
       <c r="EA9" t="n">
-        <v>3.067667719847122e-08</v>
+        <v>2.000291182691072e-10</v>
       </c>
       <c r="EB9" t="n">
-        <v>8.360608205748576e-09</v>
+        <v>3.566660577991598e-10</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.313762514916107e-10</v>
+        <v>7.854650263539042e-11</v>
       </c>
       <c r="ED9" t="n">
-        <v>5.010166725938348e-10</v>
+        <v>6.313695399828845e-11</v>
       </c>
       <c r="EE9" t="n">
-        <v>9.126862821062787e-09</v>
+        <v>1.630638332694723e-11</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.202328085511908e-08</v>
+        <v>1.901305501927908e-12</v>
       </c>
       <c r="EG9" t="n">
-        <v>3.186016783729428e-09</v>
+        <v>4.601710679175142e-11</v>
       </c>
       <c r="EH9" t="n">
-        <v>5.438222672182746e-08</v>
+        <v>8.582990221328579e-12</v>
       </c>
       <c r="EI9" t="n">
-        <v>9.223727559515282e-09</v>
+        <v>1.54232238092078e-10</v>
       </c>
       <c r="EJ9" t="n">
-        <v>4.190692948213837e-08</v>
+        <v>9.941372725030817e-11</v>
       </c>
       <c r="EK9" t="n">
-        <v>7.055015061041559e-08</v>
+        <v>6.478276248778059e-11</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.791231024090735e-09</v>
+        <v>1.2550940842182e-10</v>
       </c>
       <c r="EM9" t="n">
-        <v>7.890045949920932e-09</v>
+        <v>1.753716616370582e-11</v>
       </c>
       <c r="EN9" t="n">
-        <v>4.635875239245024e-09</v>
+        <v>1.083606676610671e-10</v>
       </c>
       <c r="EO9" t="n">
-        <v>7.494385556583438e-09</v>
+        <v>3.199207565529605e-11</v>
       </c>
       <c r="EP9" t="n">
-        <v>3.115176383516882e-08</v>
+        <v>1.347553735264739e-10</v>
       </c>
       <c r="EQ9" t="n">
-        <v>3.126950787191163e-08</v>
+        <v>1.687335687838853e-10</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.488602308086229e-08</v>
+        <v>4.319289717558128e-12</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.157976825538753e-08</v>
+        <v>3.965485995127693e-10</v>
       </c>
       <c r="ET9" t="n">
-        <v>6.703782418071569e-09</v>
+        <v>5.028782251725872e-11</v>
       </c>
       <c r="EU9" t="n">
-        <v>8.921698935182576e-09</v>
+        <v>9.230324837794512e-12</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.594901632984147e-08</v>
+        <v>3.834980388806031e-10</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.33840876159752e-08</v>
+        <v>8.95196416994537e-11</v>
       </c>
       <c r="EX9" t="n">
-        <v>3.333112275072381e-08</v>
+        <v>1.58780766312816e-11</v>
       </c>
       <c r="EY9" t="n">
-        <v>2.486792993749987e-08</v>
+        <v>6.294596788247731e-11</v>
       </c>
       <c r="EZ9" t="n">
-        <v>3.744212051515206e-08</v>
+        <v>1.293141843605738e-10</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.23000072349555e-08</v>
+        <v>2.060972226214375e-10</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.730579495846541e-08</v>
+        <v>5.565567451348841e-11</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.229365136940942e-08</v>
+        <v>2.200677834407472e-11</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.315369146936973e-08</v>
+        <v>9.776033454977906e-11</v>
       </c>
       <c r="FE9" t="n">
-        <v>7.551847147624358e-09</v>
+        <v>6.38051417256591e-11</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.359759143644169e-08</v>
+        <v>1.841106156419414e-10</v>
       </c>
       <c r="FG9" t="n">
-        <v>2.379306707211981e-08</v>
+        <v>6.99423366445906e-11</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.356389844886507e-08</v>
+        <v>1.691248391333389e-10</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.502155555499485e-08</v>
+        <v>3.527108050072059e-10</v>
       </c>
       <c r="FJ9" t="n">
-        <v>5.577319939220615e-09</v>
+        <v>3.986361241103964e-10</v>
       </c>
       <c r="FK9" t="n">
-        <v>7.530974954761405e-09</v>
+        <v>1.963746526500998e-10</v>
       </c>
       <c r="FL9" t="n">
-        <v>3.927464575781414e-09</v>
+        <v>3.48845084763294e-11</v>
       </c>
       <c r="FM9" t="n">
-        <v>8.214112945381657e-09</v>
+        <v>2.205799293220068e-10</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.302393748403574e-09</v>
+        <v>1.605411498184495e-10</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.520821335532219e-08</v>
+        <v>4.670131295569924e-11</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.973337049321344e-09</v>
+        <v>4.187921537335271e-11</v>
       </c>
       <c r="FQ9" t="n">
-        <v>8.710495080777036e-08</v>
+        <v>5.152882981418472e-11</v>
       </c>
       <c r="FR9" t="n">
-        <v>2.36272263975934e-08</v>
+        <v>3.065554060599496e-11</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.342826472239267e-08</v>
+        <v>6.828856924379068e-12</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.901948192857162e-08</v>
+        <v>1.848987629671228e-10</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.746902971750842e-08</v>
+        <v>9.947792589670712e-12</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.065672255469053e-08</v>
+        <v>1.301484961468979e-13</v>
       </c>
       <c r="FW9" t="n">
-        <v>5.567453165156167e-09</v>
+        <v>1.293096324461729e-10</v>
       </c>
       <c r="FX9" t="n">
-        <v>2.100114215863869e-08</v>
+        <v>2.645821409186233e-11</v>
       </c>
       <c r="FY9" t="n">
-        <v>5.029216154639471e-09</v>
+        <v>2.576184543467974e-10</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.10675218884171e-08</v>
+        <v>1.784262182447094e-10</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.735184085305264e-08</v>
+        <v>3.064268977448492e-11</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.430774076993657e-08</v>
+        <v>3.635147391434224e-11</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.075628995929947e-08</v>
+        <v>2.269127385989833e-10</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.752897382800711e-08</v>
+        <v>4.266691167043035e-11</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.640657553205529e-09</v>
+        <v>5.567897809477529e-10</v>
       </c>
       <c r="GF9" t="n">
-        <v>6.9092718213426e-09</v>
+        <v>1.510939429127944e-10</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.867829624302431e-08</v>
+        <v>3.0107388804268e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00328652118332684</v>
+        <v>0.0005531011847779155</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004481220617890358</v>
+        <v>0.00362528907135129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004923200234770775</v>
+        <v>0.0001047136101988144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009542962536215782</v>
+        <v>0.00191434274893254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006961226463317871</v>
+        <v>0.0003132206620648503</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008734423900023103</v>
+        <v>0.003196629928424954</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001402001944370568</v>
+        <v>0.0002103058941429481</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003950429614633322</v>
+        <v>0.0008186909253709018</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009682885371148586</v>
+        <v>0.000183352647582069</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002119134180247784</v>
+        <v>0.0008261582115665078</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005352634470909834</v>
+        <v>0.00299414386972785</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007869984954595566</v>
+        <v>0.0002044920984189957</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008480379357933998</v>
+        <v>0.001925593474879861</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00893336720764637</v>
+        <v>0.0004485188110265881</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002391400514170527</v>
+        <v>0.00331336073577404</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0002059924590867013</v>
+        <v>0.0003670458972919732</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.006361855659633875</v>
+        <v>9.335152572020888e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>0.009239253588020802</v>
+        <v>0.0001155285281129181</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001159644452854991</v>
+        <v>0.0002302873908774927</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0009586703963577747</v>
+        <v>0.0005460306419990957</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0007481257198378444</v>
+        <v>7.52300547901541e-06</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00258925836533308</v>
+        <v>0.0005089603364467621</v>
       </c>
       <c r="W10" t="n">
-        <v>0.008271746337413788</v>
+        <v>0.0001060158392647281</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002801756840199232</v>
+        <v>6.320312240859494e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001995471306145191</v>
+        <v>0.0002867936855182052</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0006529657985083759</v>
+        <v>1.644621079321951e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0005071918712928891</v>
+        <v>0.0003982579510193318</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0004265215247869492</v>
+        <v>7.766272756271064e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001101786154322326</v>
+        <v>0.0003180743951816112</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0006322296103462577</v>
+        <v>0.0002167767088394612</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.002901586936786771</v>
+        <v>0.0004399904864840209</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.001614076318219304</v>
+        <v>0.000195693937712349</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.004074451513588428</v>
+        <v>0.0001128786025219597</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.001194325275719166</v>
+        <v>0.0007012803107500076</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.004762817174196243</v>
+        <v>0.0001834112190408632</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.003054309170693159</v>
+        <v>0.0002217896108049899</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.00195663096383214</v>
+        <v>0.0004067622940056026</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.00552635733038187</v>
+        <v>0.000575434707570821</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0009864162420853972</v>
+        <v>0.0001489442074671388</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.00253731943666935</v>
+        <v>8.208758663386106e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.767303496715613e-05</v>
+        <v>7.780576561344787e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.003560861805453897</v>
+        <v>0.0004946758272126317</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001014498993754387</v>
+        <v>0.0002220882452093065</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0006994800642132759</v>
+        <v>1.30567786982283e-06</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0005897079827263951</v>
+        <v>0.0003692434402182698</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.214215394109488e-05</v>
+        <v>0.0005135845276527107</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.0008362806402146816</v>
+        <v>0.002721202559769154</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.004419382661581039</v>
+        <v>0.0003084950731135905</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.004259089473634958</v>
+        <v>0.0003858261043205857</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0002167892380384728</v>
+        <v>0.0007401896291412413</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.006312024779617786</v>
+        <v>0.001625556615181267</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0005720862536691129</v>
+        <v>0.000391719862818718</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.001547486172057688</v>
+        <v>0.0007004695944488049</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001851305481977761</v>
+        <v>0.0004734638496302068</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.00131263944786042</v>
+        <v>0.000381037563784048</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.004255141131579876</v>
+        <v>0.0007167697185650468</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0009008022607304156</v>
+        <v>0.0008419638616032898</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.003770713461562991</v>
+        <v>0.0009401847491972148</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.002143369056284428</v>
+        <v>0.001193784293718636</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0001036218891385943</v>
+        <v>0.001184621476568282</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0005508450558409095</v>
+        <v>8.501033880747855e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.000149609288200736</v>
+        <v>0.0007418434252031147</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.004041831009089947</v>
+        <v>5.524299194803461e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.877969382097945e-05</v>
+        <v>0.0002392902242718264</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.00045382822281681</v>
+        <v>0.0008573115337640047</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.003410119563341141</v>
+        <v>0.0002665160282049328</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.001903273165225983</v>
+        <v>0.0008197749266400933</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0007786868955008686</v>
+        <v>0.000655703479424119</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0002716508461162448</v>
+        <v>2.018147461058106e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0005537279648706317</v>
+        <v>0.0005778798367828131</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.002272637560963631</v>
+        <v>9.705962293082848e-05</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.001642065937630832</v>
+        <v>5.335832975106314e-05</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.001929035293869674</v>
+        <v>0.0002534226223360747</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002964093582704663</v>
+        <v>0.001366663258522749</v>
       </c>
       <c r="BW10" t="n">
-        <v>3.376742824912071e-05</v>
+        <v>2.916247467510402e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.003708526026457548</v>
+        <v>0.0001222840946866199</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.003863014280796051</v>
+        <v>0.0001342854666290805</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0001059550995705649</v>
+        <v>0.0003008756320923567</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0006967851077206433</v>
+        <v>0.000566161994356662</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001957617932930589</v>
+        <v>0.0004038803454022855</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.005554284900426865</v>
+        <v>0.0003759682876989245</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.001595162320882082</v>
+        <v>8.368556154891849e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.002787331584841013</v>
+        <v>0.0006943652988411486</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.00118928519077599</v>
+        <v>0.000294652912998572</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.002038601553067565</v>
+        <v>0.0004306017654016614</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002046853536739945</v>
+        <v>0.0002177262504119426</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0004306665796320885</v>
+        <v>0.0005384949618019164</v>
       </c>
       <c r="CJ10" t="n">
-        <v>9.26706416066736e-05</v>
+        <v>0.0001834806462284178</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0007256410899572074</v>
+        <v>6.932466203579679e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0008296179585158825</v>
+        <v>0.0002168817009078339</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0005048732273280621</v>
+        <v>0.00052851956570521</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.00497588561847806</v>
+        <v>0.0004568486474454403</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0006866292096674442</v>
+        <v>7.852971612010151e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.003990531899034977</v>
+        <v>0.0005005650455132127</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.003882321761921048</v>
+        <v>0.0002011025790125132</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.003792098024860024</v>
+        <v>0.0001335072593064979</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0008243148913607001</v>
+        <v>0.0002063280699076131</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0002504807780496776</v>
+        <v>0.000519127061124891</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0006892826058901846</v>
+        <v>0.0001465051318518817</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.001876095542684197</v>
+        <v>4.779230584972538e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.003352274652570486</v>
+        <v>0.0005235336720943451</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.00128618476446718</v>
+        <v>0.0002475979854352772</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.001864598016254604</v>
+        <v>0.0005926906014792621</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.002627416048198938</v>
+        <v>0.0001489756541559473</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0004883555229753256</v>
+        <v>0.0005191586678847671</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.000395980867324397</v>
+        <v>0.0002607469505164772</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0004633425851352513</v>
+        <v>0.00034335270174779</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0009400038979947567</v>
+        <v>0.0001146711510955356</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.00277517456561327</v>
+        <v>0.0002754595188889652</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.005025877617299557</v>
+        <v>0.00119916838593781</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.005261783022433519</v>
+        <v>0.0001492756273364648</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.001277895760722458</v>
+        <v>0.001043174299411476</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.00349316094070673</v>
+        <v>0.0002036827645497397</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0003746963629964739</v>
+        <v>0.0001341928145848215</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0002259674656670541</v>
+        <v>0.0007909850683063269</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.00253119901753962</v>
+        <v>0.0007833083509467542</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0008710745023563504</v>
+        <v>0.0004135882190894336</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0004738158022519201</v>
+        <v>0.0002913306234404445</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.001478959922678769</v>
+        <v>0.0003582238568924367</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.002085673855617642</v>
+        <v>0.0004414330469444394</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0004803328192792833</v>
+        <v>0.0006231306469999254</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.001150037162005901</v>
+        <v>4.78833717352245e-05</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0005463550915010273</v>
+        <v>6.145602674223483e-05</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0005797002231702209</v>
+        <v>4.208366954117082e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001105444971472025</v>
+        <v>9.512847464065999e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.00196342240087688</v>
+        <v>0.0002852985635399818</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0001762981119100004</v>
+        <v>5.497300298884511e-05</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.001272931229323149</v>
+        <v>6.032748206052929e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0009154670988209546</v>
+        <v>0.0003013024688698351</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.001189375412650406</v>
+        <v>3.688452125061303e-05</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0006149651017040014</v>
+        <v>0.000103845028206706</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0009723281837068498</v>
+        <v>0.0002243412018287927</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001056795474141836</v>
+        <v>7.232128700707108e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.000137037830427289</v>
+        <v>7.397886656690389e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.003154562553390861</v>
+        <v>0.0002984414750244468</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.001881193835288286</v>
+        <v>0.0001745953195495531</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.002719518030062318</v>
+        <v>0.0002138932031812146</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0004135552153456956</v>
+        <v>4.951035953126848e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.002952083013951778</v>
+        <v>0.0001626324228709564</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.001223044469952583</v>
+        <v>0.0001512668677605689</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0004347413487266749</v>
+        <v>0.0004175609210506082</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0006841548020020127</v>
+        <v>0.0003056106506846845</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.002647588262334466</v>
+        <v>9.829772170633078e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0006540520116686821</v>
+        <v>0.0001615532382857054</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001582185854203999</v>
+        <v>0.0002862208057194948</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.001954194623976946</v>
+        <v>0.0001874473091447726</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.003617891576141119</v>
+        <v>0.0001738429418765008</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0008266229415312409</v>
+        <v>0.0002685307408683002</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.004654129967093468</v>
+        <v>0.0002255287836305797</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0005362550728023052</v>
+        <v>0.0006983275525271893</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0009601580677554011</v>
+        <v>0.0002513341314624995</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0005042612901888788</v>
+        <v>0.0005173356621526182</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.001921423128806055</v>
+        <v>1.998383595491759e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.001573560643009841</v>
+        <v>7.216902304207906e-05</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.003252678085118532</v>
+        <v>0.000485931639559567</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.001591452630236745</v>
+        <v>0.0001452969299862161</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.001687285024672747</v>
+        <v>0.0003975777071900666</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.002455914858728647</v>
+        <v>0.0001518618810223415</v>
       </c>
       <c r="FC10" t="n">
-        <v>7.790712697897106e-05</v>
+        <v>0.0005122433649376035</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0002706335799302906</v>
+        <v>0.0002944866428151727</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0007757269195280969</v>
+        <v>7.670938066439703e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.001254123053513467</v>
+        <v>0.0002595475525595248</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0005830961163155735</v>
+        <v>0.0002107636537402868</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.001462513580918312</v>
+        <v>0.0003886354097630829</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.001778248930349946</v>
+        <v>0.0002129164786310866</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001215492025949061</v>
+        <v>0.0002578881976660341</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.001123281545005739</v>
+        <v>0.0001483218802604824</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.001179137616418302</v>
+        <v>0.0001243357692146674</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.001058165333233774</v>
+        <v>5.657807923853397e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.001770401140674949</v>
+        <v>7.971017475938424e-05</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.00012362384586595</v>
+        <v>7.684493175474927e-05</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0007831985130906105</v>
+        <v>0.0003894041874445975</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.003615578636527061</v>
+        <v>0.0001278280251426622</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0005648027872666717</v>
+        <v>4.91371683892794e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.00252873357385397</v>
+        <v>0.0003756641817744821</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.001443077577278018</v>
+        <v>0.001548519590869546</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.00113068672362715</v>
+        <v>0.0003704233677126467</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.001248744782060385</v>
+        <v>0.0001750358933350071</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.001542452373541892</v>
+        <v>0.0004871929413639009</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.001166186877526343</v>
+        <v>9.354714711662382e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.001025599194690585</v>
+        <v>0.0004175776266492903</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0002487249439582229</v>
+        <v>0.0004009910335298628</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0009243194945156574</v>
+        <v>3.827709952020086e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.001060160691849887</v>
+        <v>0.0005152195226401091</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0008843127870932221</v>
+        <v>0.0002328344562556595</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.001368565252050757</v>
+        <v>0.0003741009277291596</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001346806529909372</v>
+        <v>0.00116399850230664</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0002718477044254541</v>
+        <v>0.000547956267837435</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.002735049929469824</v>
+        <v>0.0004109058936592191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0006984120700508356</v>
+        <v>0.001070183236151934</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0008985248859971762</v>
+        <v>0.0005242241895757616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001560500357300043</v>
+        <v>0.002682355465367436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001124096219427884</v>
+        <v>0.002169081708416343</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002444393001496792</v>
+        <v>0.001418792875483632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004020988009870052</v>
+        <v>0.0005740289343520999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0009204964735545218</v>
+        <v>0.0005921581177972257</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006131035275757313</v>
+        <v>0.0003173980803694576</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0009825334418565035</v>
+        <v>0.0005317417089827359</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002183053875342011</v>
+        <v>0.0008868294535204768</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002955442760139704</v>
+        <v>0.0005035190843045712</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002155778231099248</v>
+        <v>0.002056797035038471</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000933850125875324</v>
+        <v>0.002275720005854964</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002821869449689984</v>
+        <v>5.615689588012174e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00428433483466506</v>
+        <v>0.0006294577615335584</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0008358749328181148</v>
+        <v>0.0003370787017047405</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006776009686291218</v>
+        <v>5.25014620507136e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0005606167251244187</v>
+        <v>0.0009769813623279333</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001504979911260307</v>
+        <v>0.0003254271578043699</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0003382109862286597</v>
+        <v>0.0004239756963215768</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0002397670468781143</v>
+        <v>0.0004135834751650691</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0002839247754309326</v>
+        <v>0.0004531383456196636</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0004041215288452804</v>
+        <v>0.0003475963312666863</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001071279402822256</v>
+        <v>0.0001731461670715362</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0003388597397133708</v>
+        <v>0.0003700978995766491</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001682251575402915</v>
+        <v>0.0002574885438662022</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.322843885049224e-05</v>
+        <v>4.045624518766999e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0003787151363212615</v>
+        <v>0.0008794124587439001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0001928575220517814</v>
+        <v>6.927968934178352e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.808882320299745e-05</v>
+        <v>9.643657540436834e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001068601151928306</v>
+        <v>0.0009182635694742203</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002292063785716891</v>
+        <v>0.0007593284244649112</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0005947057507000864</v>
+        <v>3.352655767230317e-06</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.001967648509889841</v>
+        <v>4.335808625910431e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0007528991554863751</v>
+        <v>0.0003171199641656131</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0001745179615681991</v>
+        <v>0.000360210775397718</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0003658819478005171</v>
+        <v>0.0002627731009852141</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0004888091934844851</v>
+        <v>4.687078762799501e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.001361999660730362</v>
+        <v>2.150512591470033e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0002191639505326748</v>
+        <v>0.0001670619240030646</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.00308078364469111</v>
+        <v>0.0006517691072076559</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0003046611382160336</v>
+        <v>0.0001562025572638959</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.060081821284257e-05</v>
+        <v>0.0002959671546705067</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0004337050195317715</v>
+        <v>7.092978921718895e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.000404249643906951</v>
+        <v>0.0001990087330341339</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.001096619293093681</v>
+        <v>0.0008846773416735232</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.002118843840435147</v>
+        <v>0.0009676560875959694</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0007397377048619092</v>
+        <v>0.001500040758401155</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0001211897397297435</v>
+        <v>0.001869140774942935</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0008747010724619031</v>
+        <v>0.0003433837846387178</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.003040173556655645</v>
+        <v>0.000686434970702976</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0002448398154228926</v>
+        <v>0.0004373713163658977</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.002020890824496746</v>
+        <v>0.0005069856415502727</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.00019178117509</v>
+        <v>0.0004045004025101662</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0006683808169327676</v>
+        <v>0.0007965218974277377</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0006560437614098191</v>
+        <v>0.001543106860481203</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0008539134287275374</v>
+        <v>0.0003453704121056944</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.001445102039724588</v>
+        <v>0.0007806475041434169</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.001334924018010497</v>
+        <v>0.0006162742502056062</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0002925996668636799</v>
+        <v>0.001003530924208462</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.001476802630349994</v>
+        <v>0.0006337865488603711</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001565495971590281</v>
+        <v>7.83940777182579e-07</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0001843620848376304</v>
+        <v>0.0008492241031490266</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0001314130931859836</v>
+        <v>4.008491669083014e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0007445140508934855</v>
+        <v>0.0005365857505239546</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0006932637188583612</v>
+        <v>0.000208970857784152</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0003461525193415582</v>
+        <v>3.969223689637147e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.616976442164741e-05</v>
+        <v>0.0005491788615472615</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0006695236079394817</v>
+        <v>7.463518704753369e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.001247894135303795</v>
+        <v>2.272996061947197e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0002512962382752448</v>
+        <v>0.0002855139318853617</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.370517904637381e-06</v>
+        <v>0.0002031073527177796</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0004716240800917149</v>
+        <v>0.000238328633713536</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0006076691788621247</v>
+        <v>0.0005807155393995345</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0002187233767472208</v>
+        <v>0.00103259552270174</v>
       </c>
       <c r="BX11" t="n">
-        <v>3.481465682853013e-05</v>
+        <v>0.001248363638296723</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.000633911055047065</v>
+        <v>0.0004832896811421961</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.002354330150410533</v>
+        <v>0.0002305278612766415</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0005540882120840251</v>
+        <v>0.0001171511685242876</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0020817203912884</v>
+        <v>0.000376773503376171</v>
       </c>
       <c r="CC11" t="n">
-        <v>5.845051782671362e-05</v>
+        <v>0.0004659165279008448</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0001612342748558149</v>
+        <v>0.0003178826882503927</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.000252756173722446</v>
+        <v>6.014472091919743e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0005294544389471412</v>
+        <v>0.0007004234939813614</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.000425310165155679</v>
+        <v>0.0003655343316495419</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0008307928219437599</v>
+        <v>0.0003351240884512663</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0008180425502359867</v>
+        <v>4.984392944606952e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>9.851919458014891e-05</v>
+        <v>0.0002352340234210715</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.001084677060134709</v>
+        <v>0.0001768205547705293</v>
       </c>
       <c r="CL11" t="n">
-        <v>4.193045970168896e-05</v>
+        <v>6.132340058684349e-05</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0009867070475593209</v>
+        <v>0.0009825477609410882</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.001861359691247344</v>
+        <v>0.0008236478315666318</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.001021998701617122</v>
+        <v>1.780633465386927e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.00142859376501292</v>
+        <v>0.0003929930098820478</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0002257958258269355</v>
+        <v>0.0002285032824147493</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0001934195024659857</v>
+        <v>0.000305788271361962</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0005472323973663151</v>
+        <v>0.000214299390790984</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0009944007033482194</v>
+        <v>0.001059880945831537</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0003648306883405894</v>
+        <v>0.0002232005790574476</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0003453056851867586</v>
+        <v>0.0002394314069533721</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0003226128756068647</v>
+        <v>0.000229482728173025</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.000605397333856672</v>
+        <v>0.0004642331041395664</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.000400026619900018</v>
+        <v>0.000405839120503515</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.000715717498678714</v>
+        <v>0.0001458048791391775</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0008292694692499936</v>
+        <v>2.162644886993803e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.244339364347979e-05</v>
+        <v>0.0002105302119161934</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.001285049831494689</v>
+        <v>0.0001142617402365431</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0001163606502814218</v>
+        <v>1.551390232634731e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.00278860074467957</v>
+        <v>8.069344039540738e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001317214220762253</v>
+        <v>0.0009107223595492542</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001168409711681306</v>
+        <v>0.000819950713776052</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0007615311769768596</v>
+        <v>0.0002655238495208323</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0002823757531587034</v>
+        <v>0.0001158177401521243</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.001487602712586522</v>
+        <v>0.0002451590844430029</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0002453200286254287</v>
+        <v>0.0008671774412505329</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0002065594017039984</v>
+        <v>0.0002516661770641804</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0007197453523986042</v>
+        <v>0.000287227361695841</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0005366627010516822</v>
+        <v>2.635354758240283e-05</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0007366487989202142</v>
+        <v>0.0006005583563819528</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0005520802224054933</v>
+        <v>0.0004657107638195157</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.000526918622199446</v>
+        <v>7.76882516220212e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.001119610271416605</v>
+        <v>0.0009208928095176816</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0007098111091181636</v>
+        <v>0.000384739541914314</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0008096139063127339</v>
+        <v>0.0003924164338968694</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0001613398926565424</v>
+        <v>0.0001353481638943776</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0007295421091839671</v>
+        <v>0.0006486767088063061</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0004301770823076367</v>
+        <v>0.0001973928592633456</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0001367611694149673</v>
+        <v>0.0008868408622220159</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0007465751259587705</v>
+        <v>0.0002827206335496157</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.000119452117360197</v>
+        <v>0.00017662147001829</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0001450058771297336</v>
+        <v>0.0004324231122154742</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0001801312027964741</v>
+        <v>0.000594095850829035</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0004670048074331135</v>
+        <v>3.5028402635362e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.000129566848045215</v>
+        <v>0.0001719928113743663</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0003867620544042438</v>
+        <v>3.601855132728815e-05</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.001243666163645685</v>
+        <v>2.699517244764138e-05</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.001654855557717383</v>
+        <v>0.0003040713490918279</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.000133056310005486</v>
+        <v>0.0007177659426815808</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0004488804843276739</v>
+        <v>0.0008410761947743595</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0003913914551958442</v>
+        <v>1.045762383000692e-05</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0006062405882403255</v>
+        <v>6.241200026124716e-06</v>
       </c>
       <c r="EL11" t="n">
-        <v>2.203281837864779e-06</v>
+        <v>0.000284853857010603</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.001086008618585765</v>
+        <v>8.849102596286684e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0002727368264459074</v>
+        <v>0.0002963391889352351</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0002350229624425992</v>
+        <v>2.541033609304577e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0002375954791205004</v>
+        <v>0.0005958336405456066</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0007726291078142822</v>
+        <v>0.0003070450620725751</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003048611979465932</v>
+        <v>0.0004067666013725102</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0008920283289626241</v>
+        <v>0.0002109721972374246</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0004408526001498103</v>
+        <v>9.774179488886148e-05</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0001540434604976326</v>
+        <v>0.0003155407612212002</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.00124087929725647</v>
+        <v>1.3315071555553e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.0005660381866618991</v>
+        <v>0.0003410975623410195</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0002593274984974414</v>
+        <v>0.000243998336372897</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0003835785901173949</v>
+        <v>0.0002914717770181596</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.000545267597772181</v>
+        <v>0.0006130626425147057</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0006461284938268363</v>
+        <v>0.0003907536738552153</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.001113392761908472</v>
+        <v>0.0001977596548385918</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0009140154579654336</v>
+        <v>8.900729881133884e-06</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0001012021166388877</v>
+        <v>0.0001807493099477142</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001236596726812422</v>
+        <v>9.517658327240497e-05</v>
       </c>
       <c r="FF11" t="n">
-        <v>2.890906398533843e-05</v>
+        <v>0.0001608886668691412</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0002675975556485355</v>
+        <v>9.298199438489974e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>2.635038254084066e-05</v>
+        <v>0.0004095019539818168</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.0007519334321841598</v>
+        <v>1.380120556859765e-05</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.000652581627946347</v>
+        <v>0.0004054601886309683</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.000327790214214474</v>
+        <v>0.0002826677518896759</v>
       </c>
       <c r="FL11" t="n">
-        <v>3.639960777945817e-05</v>
+        <v>0.0003187778347637504</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0001915266911964864</v>
+        <v>0.0001936134358402342</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0005021011456847191</v>
+        <v>0.0004320171719882637</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0002790978469420224</v>
+        <v>0.0002905826841015369</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0009702665265649557</v>
+        <v>0.0004354143457021564</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.0002598765131551772</v>
+        <v>0.0002307973627466708</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0003146814415231347</v>
+        <v>0.0006244128453545272</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0001431633572792634</v>
+        <v>5.568485357798636e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0007047775434330106</v>
+        <v>4.509325663093477e-05</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.00138101086486131</v>
+        <v>0.0003437700506765395</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0009490889497101307</v>
+        <v>0.0001237188844243065</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0007714633247815073</v>
+        <v>0.000308311078697443</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.0001246315514435992</v>
+        <v>0.000107096871943213</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0004655870143324137</v>
+        <v>0.000135502777993679</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.0001600450777914375</v>
+        <v>0.0005420373636297882</v>
       </c>
       <c r="GA11" t="n">
-        <v>2.087483881041408e-05</v>
+        <v>9.501620661467314e-05</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0002997371484525502</v>
+        <v>4.416062438394874e-06</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0006812213105149567</v>
+        <v>0.0005632381653413177</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0002532844373490661</v>
+        <v>0.0008309768163599074</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.000295848265523091</v>
+        <v>0.0002630728995427489</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0001935385225806385</v>
+        <v>0.0001499563513789326</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0004473866720218211</v>
+        <v>2.216751818195917e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.008139462210238e-05</v>
+        <v>5.99786017119186e-06</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000189807906281203</v>
+        <v>0.0001210503105539829</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005228085210546851</v>
+        <v>1.985249036806636e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001388874603435397</v>
+        <v>4.851119956583716e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009325782302767038</v>
+        <v>5.99705490458291e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002120459103025496</v>
+        <v>5.99590057390742e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>2.044538268819451e-05</v>
+        <v>2.350299109821208e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002067882567644119</v>
+        <v>2.821531234076247e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>7.023986836429685e-05</v>
+        <v>9.561234037391841e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>4.387221633805893e-05</v>
+        <v>1.15713646664517e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003625094541348517</v>
+        <v>9.425223834114149e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004860300978180021</v>
+        <v>3.524062094584224e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0009245554101653397</v>
+        <v>3.06061738228891e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001538796233944595</v>
+        <v>4.385720967547968e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0003498770529404283</v>
+        <v>5.345715180737898e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0003747009322978556</v>
+        <v>2.537144064262975e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002532907528802752</v>
+        <v>4.556904968922026e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0001548237778479233</v>
+        <v>8.909118150768336e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>7.095208275131881e-05</v>
+        <v>8.957767363426683e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0002178386930609122</v>
+        <v>1.708003583189566e-05</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0001296468544751406</v>
+        <v>2.826865511451615e-06</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001110697048716247</v>
+        <v>2.217849578300957e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>0.001006042584776878</v>
+        <v>1.722491288091987e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0002106402243953198</v>
+        <v>1.863746183516923e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.599505048943684e-05</v>
+        <v>6.268486231419956e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0004361233150120825</v>
+        <v>1.6638012311887e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0001047524274326861</v>
+        <v>9.982203664549161e-06</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0004599609819706529</v>
+        <v>7.672882929909974e-06</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0002311916323378682</v>
+        <v>1.362447073915973e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0003931907413061708</v>
+        <v>2.1707692212658e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.000679418386425823</v>
+        <v>8.614036232756916e-06</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0001606087025720626</v>
+        <v>1.512737071607262e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.376314665132668e-06</v>
+        <v>4.681379778048722e-06</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0006064811605028808</v>
+        <v>9.081031748792157e-06</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0001406618393957615</v>
+        <v>8.091428753687069e-06</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0001286237529711798</v>
+        <v>4.920727860735497e-06</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.000371523346984759</v>
+        <v>1.245277962880209e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.00015153011190705</v>
+        <v>2.221997783635743e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0002356342447455972</v>
+        <v>2.563771886343602e-06</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.006135425996035e-05</v>
+        <v>7.894257578300312e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0004509271821007133</v>
+        <v>3.859800017380621e-06</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0001445437083020806</v>
+        <v>2.335721364943311e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0003412113874219358</v>
+        <v>1.003376837616088e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0001360630849376321</v>
+        <v>1.099936980608618e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.762871412822278e-07</v>
+        <v>1.406978662998881e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0003438758139964193</v>
+        <v>7.337956049013883e-06</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.0001971768506336957</v>
+        <v>8.235047425841913e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0001044665696099401</v>
+        <v>1.251908088306664e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0004464654775802046</v>
+        <v>4.714693204732612e-06</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0007179492386057973</v>
+        <v>2.00087160919793e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0001138696243287995</v>
+        <v>3.587641549529508e-05</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0007308232598006725</v>
+        <v>1.736048716338701e-06</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.001059693866409361</v>
+        <v>1.80827992153354e-05</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0001485295069869608</v>
+        <v>9.518105798633769e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0003206446999683976</v>
+        <v>6.679400485154474e-06</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0001302639866480604</v>
+        <v>1.942867675097659e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.422389949671924e-05</v>
+        <v>2.146295082638972e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0007119650254026055</v>
+        <v>1.443008113710675e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0002347142290091142</v>
+        <v>4.419406468514353e-05</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0004721754230558872</v>
+        <v>1.164966852229554e-05</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.000270253891358152</v>
+        <v>1.768121910572518e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0004036798200104386</v>
+        <v>1.925318065332249e-05</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0001420331827830523</v>
+        <v>6.859113454993349e-06</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0001564679696457461</v>
+        <v>1.097332824429031e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>9.293384937336668e-05</v>
+        <v>2.879385465348605e-05</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.000243628368480131</v>
+        <v>1.285343296331121e-05</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0003045788034796715</v>
+        <v>7.834205462131649e-06</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0002700968470890075</v>
+        <v>2.273137170050177e-06</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.236106411146466e-08</v>
+        <v>8.656017598696053e-06</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0004041604697704315</v>
+        <v>4.705586434283759e-06</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.000327535904943943</v>
+        <v>5.951725142949726e-06</v>
       </c>
       <c r="BT12" t="n">
-        <v>3.666427437565289e-05</v>
+        <v>9.168913493340369e-06</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.000933523231651634</v>
+        <v>6.703675353492144e-06</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.155418794951402e-05</v>
+        <v>5.076784873381257e-05</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0002426648861728609</v>
+        <v>2.474816392350476e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0001113236648961902</v>
+        <v>1.113477264880203e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0003315345093142241</v>
+        <v>1.577339753566775e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0001903331140056252</v>
+        <v>4.891796379524749e-06</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0005574981914833188</v>
+        <v>6.764526915503666e-06</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0007372634136117995</v>
+        <v>5.685876203642692e-06</v>
       </c>
       <c r="CC12" t="n">
-        <v>2.579561623861082e-05</v>
+        <v>1.051495837600669e-05</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0003053172549698502</v>
+        <v>5.33011643710779e-08</v>
       </c>
       <c r="CE12" t="n">
-        <v>6.182753713801503e-05</v>
+        <v>1.869632615125738e-05</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0001290179352508858</v>
+        <v>7.360177733062301e-06</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0001891696010716259</v>
+        <v>8.03492366685532e-06</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0002775527827907354</v>
+        <v>1.908392164295947e-07</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0001040427960106172</v>
+        <v>1.136659011535812e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0001408783136866987</v>
+        <v>4.879997050011298e-06</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.000425367004936561</v>
+        <v>4.150319000473246e-06</v>
       </c>
       <c r="CL12" t="n">
-        <v>5.062018681201153e-05</v>
+        <v>5.830835107190069e-06</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.876256960211322e-05</v>
+        <v>1.902221265481785e-05</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.0004448523104656488</v>
+        <v>7.190580618043896e-06</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0003965121577493846</v>
+        <v>5.703848728444427e-06</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0001779279700713232</v>
+        <v>6.001099791319575e-06</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.0006457884446717799</v>
+        <v>1.190149032481713e-05</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0006926355417817831</v>
+        <v>1.00989309430588e-05</v>
       </c>
       <c r="CS12" t="n">
-        <v>4.089397407369688e-06</v>
+        <v>2.205769851570949e-05</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.674857048783451e-05</v>
+        <v>1.772862560756039e-05</v>
       </c>
       <c r="CU12" t="n">
-        <v>4.544149123830721e-05</v>
+        <v>1.520919568065437e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0002249271492473781</v>
+        <v>3.331754214741522e-07</v>
       </c>
       <c r="CW12" t="n">
-        <v>8.40178836369887e-05</v>
+        <v>1.57350477820728e-05</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0001229559420607984</v>
+        <v>8.420531230513006e-06</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0002040377876255661</v>
+        <v>1.27651946968399e-05</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.0002791965962387621</v>
+        <v>1.852504283306189e-06</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0001478000776842237</v>
+        <v>1.579371746629477e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>8.103906293399632e-05</v>
+        <v>3.112233571300749e-06</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0005136107793077826</v>
+        <v>7.459331754944287e-06</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.688228652114049e-05</v>
+        <v>1.462197133150767e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0004796038847416639</v>
+        <v>4.726956831291318e-06</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0004694417293649167</v>
+        <v>2.462342126818839e-05</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.000136048678541556</v>
+        <v>4.535534117167117e-06</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0001491756120231003</v>
+        <v>3.206069231964648e-05</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0003953308332711458</v>
+        <v>7.966709745232947e-06</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0001884175289887935</v>
+        <v>3.281285671619116e-06</v>
       </c>
       <c r="DK12" t="n">
-        <v>7.240888953674585e-05</v>
+        <v>1.93261839740444e-05</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0001151473479694687</v>
+        <v>1.305141449847724e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>2.717837742238771e-05</v>
+        <v>1.177073045255383e-05</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.000168602928170003</v>
+        <v>5.026999133406207e-06</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0001307621714659035</v>
+        <v>7.914016350696329e-06</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0001667580363573506</v>
+        <v>1.647102408242063e-06</v>
       </c>
       <c r="DQ12" t="n">
-        <v>8.297295426018536e-05</v>
+        <v>3.618323944465374e-06</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0006526801735162735</v>
+        <v>2.525655872887e-06</v>
       </c>
       <c r="DS12" t="n">
-        <v>7.576665666420013e-06</v>
+        <v>1.193718890135642e-05</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0003687349380925298</v>
+        <v>5.891160526516614e-06</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0001629237522138283</v>
+        <v>7.634464054717682e-06</v>
       </c>
       <c r="DV12" t="n">
-        <v>8.601287845522165e-05</v>
+        <v>6.310720436886186e-06</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0001159494640887715</v>
+        <v>3.048755843337858e-06</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0004359330632723868</v>
+        <v>2.338362946829875e-06</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0001349645026493818</v>
+        <v>1.289136616833275e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0002019752282649279</v>
+        <v>1.322751586485538e-06</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.711613549559843e-05</v>
+        <v>5.04848458149354e-06</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0003445057373028249</v>
+        <v>4.525616532191634e-06</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0001523485698271543</v>
+        <v>8.512369049640256e-07</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.000129752850625664</v>
+        <v>8.572059414291289e-06</v>
       </c>
       <c r="EE12" t="n">
-        <v>5.260175748844631e-05</v>
+        <v>6.937707439647056e-07</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.000106089748442173</v>
+        <v>5.773405973741319e-06</v>
       </c>
       <c r="EG12" t="n">
-        <v>2.631104507599957e-05</v>
+        <v>1.540171251690481e-05</v>
       </c>
       <c r="EH12" t="n">
-        <v>5.249692185316235e-05</v>
+        <v>9.544208296574652e-06</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.000433488457929343</v>
+        <v>2.803829374897759e-06</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0003524034400470555</v>
+        <v>8.28500105853891e-06</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0002690315595827997</v>
+        <v>8.511537089361809e-06</v>
       </c>
       <c r="EL12" t="n">
-        <v>6.875525286886841e-07</v>
+        <v>5.96288464294048e-06</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.000622862484306097</v>
+        <v>2.707903831833391e-06</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.0002648010267876089</v>
+        <v>6.714560640830314e-08</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0002976339310407639</v>
+        <v>5.163519745110534e-06</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0002316723112016916</v>
+        <v>8.14022496342659e-06</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0002480128896422684</v>
+        <v>1.370988411508733e-05</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.0001006653910735622</v>
+        <v>1.606374280527234e-05</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0003670316946227103</v>
+        <v>9.645586942497175e-06</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0002109600318362936</v>
+        <v>1.535720366518945e-05</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.0001203568899654783</v>
+        <v>6.501652933366131e-06</v>
       </c>
       <c r="EV12" t="n">
-        <v>5.514821168617345e-05</v>
+        <v>1.951166268554516e-05</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.000152808366692625</v>
+        <v>2.271710400236771e-06</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0002185430203098804</v>
+        <v>1.790878741303459e-06</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.0001295875408686697</v>
+        <v>1.46308357216185e-05</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.000154652661876753</v>
+        <v>5.551692993321922e-06</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0001729166251607239</v>
+        <v>1.215464271808742e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0004039613995701075</v>
+        <v>2.924494765466079e-06</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0001750663504935801</v>
+        <v>1.222731953021139e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0001762090105330572</v>
+        <v>7.215533969429089e-06</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0004777302674483508</v>
+        <v>6.210501851455774e-06</v>
       </c>
       <c r="FF12" t="n">
-        <v>6.423241575248539e-05</v>
+        <v>6.7107830545865e-06</v>
       </c>
       <c r="FG12" t="n">
-        <v>4.602342596626841e-05</v>
+        <v>6.739264790667221e-06</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0001827833475545049</v>
+        <v>1.061777220456861e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.513379902462475e-05</v>
+        <v>8.46879538585199e-06</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.0001871356944320723</v>
+        <v>1.66459667525487e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0004387477820273489</v>
+        <v>4.931749117531581e-06</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0004051697324030101</v>
+        <v>9.084741577680688e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0003030916850548238</v>
+        <v>3.594415375118842e-06</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0003868047497235239</v>
+        <v>8.135753887472674e-06</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0001339239825028926</v>
+        <v>8.220767085731495e-06</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0006950623355805874</v>
+        <v>2.534372470108792e-06</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0003156156162731349</v>
+        <v>4.386961336422246e-06</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.000479554757475853</v>
+        <v>1.104487273551058e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.0001202604253194295</v>
+        <v>1.957268614205532e-05</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0003784155414905399</v>
+        <v>9.523603694105987e-06</v>
       </c>
       <c r="FU12" t="n">
-        <v>9.442148439120501e-05</v>
+        <v>1.945634039657307e-06</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0001581616088515148</v>
+        <v>8.538063411833718e-06</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0003872193628922105</v>
+        <v>6.747131919837557e-06</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0003424400929361582</v>
+        <v>8.983845418697456e-07</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0003548150998540223</v>
+        <v>2.253436468890868e-05</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0003357842506375164</v>
+        <v>8.484075806336477e-07</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0001657751272432506</v>
+        <v>4.361500941740815e-06</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.000379925622837618</v>
+        <v>1.153936864284333e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.0001627526653464884</v>
+        <v>1.167244045063853e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0003490847011562437</v>
+        <v>1.639102265471593e-05</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0006744800484739244</v>
+        <v>4.67333520646207e-05</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0001377250300720334</v>
+        <v>5.13345639774343e-07</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0001971946039702743</v>
+        <v>1.356988605039078e-06</v>
       </c>
     </row>
   </sheetData>
